--- a/result/week/week_return.xlsx
+++ b/result/week/week_return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -469,6 +489,10 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,10 +508,22 @@
         <v>-0.001313197824960533</v>
       </c>
       <c r="E3" t="n">
+        <v>0.02711009400947528</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.09081480465544756</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.02133931603499573</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>-0.003937012959339459</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.009429369827646639</v>
       </c>
     </row>
     <row r="4">
@@ -504,10 +540,22 @@
         <v>-0.003949972219313924</v>
       </c>
       <c r="E4" t="n">
+        <v>-0.03016820036829682</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01566611674439944</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1567180753325044</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.07780592770276673</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.01176484157958635</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01784202845815308</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +572,22 @@
         <v>0.005263170044274457</v>
       </c>
       <c r="E5" t="n">
+        <v>-0.03903696280823254</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01797224240443063</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.06642547598170534</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.02202501197708839</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.0135529664047036</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01210113426107284</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +604,22 @@
         <v>-0.01854357771216897</v>
       </c>
       <c r="E6" t="n">
+        <v>0.03135052988407594</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.0932766254685613</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03243527575315364</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.01280700535639046</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>0.02093320966646584</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0178768082486549</v>
       </c>
     </row>
     <row r="7">
@@ -564,10 +636,22 @@
         <v>-0.005361943141385161</v>
       </c>
       <c r="E7" t="n">
+        <v>0.001542020351815943</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03120820645384059</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03243527575315364</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.04279314469705753</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>0.04780321868534498</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.01291952305137656</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +668,22 @@
         <v>-0.0272496424473756</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.0297128973185119</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.008683122573461155</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.03636764417087512</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.01127407657321822</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>-0.01628995297926839</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.018681370374523</v>
       </c>
     </row>
     <row r="9">
@@ -604,10 +700,22 @@
         <v>0.01915243221475604</v>
       </c>
       <c r="E9" t="n">
+        <v>0.03432474254107465</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.005797117684326114</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.007147993265287145</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.0290523225945023</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>-0.033398280401848</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.03489554428796282</v>
       </c>
     </row>
     <row r="10">
@@ -624,10 +732,22 @@
         <v>-0.02191868570764655</v>
       </c>
       <c r="E10" t="n">
+        <v>-0.06331227941432704</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02285813807604997</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.08531723440680627</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.03132247112904141</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.07259531885706139</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +764,22 @@
         <v>-0.04243918327515628</v>
       </c>
       <c r="E11" t="n">
+        <v>-0.009852296443010999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.04329680575332429</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0155041865359653</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.04652001563489261</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>-0.02097312338027901</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.01846179106181189</v>
       </c>
     </row>
     <row r="12">
@@ -664,10 +796,22 @@
         <v>-0.01896482805897337</v>
       </c>
       <c r="E12" t="n">
+        <v>0.006578971098042175</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02388173200338706</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.00927363678532922</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.03760297477886754</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>0.07245507921542194</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002403973100456369</v>
       </c>
     </row>
     <row r="13">
@@ -684,10 +828,22 @@
         <v>0.04323439897343118</v>
       </c>
       <c r="E13" t="n">
+        <v>0.02908120930084124</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02092752010595555</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03957898628065815</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.02079585646248594</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>0.02827043393825601</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02381244746453071</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +860,22 @@
         <v>0.06020970126776604</v>
       </c>
       <c r="E14" t="n">
+        <v>0.03596947574037124</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1857672899595766</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06080019902696421</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.09904521655335374</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>0.02579678733201973</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.04280574783107483</v>
       </c>
     </row>
     <row r="15">
@@ -724,10 +892,22 @@
         <v>0.002652521449130862</v>
       </c>
       <c r="E15" t="n">
+        <v>-0.05688737440205127</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.03500357357333383</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.08497055995477698</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.01546992177213191</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>-0.0813168637176509</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.02047488735556868</v>
       </c>
     </row>
     <row r="16">
@@ -744,10 +924,22 @@
         <v>0.03257617043461281</v>
       </c>
       <c r="E16" t="n">
+        <v>0.09160784310578851</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08531358371253539</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1593794499100571</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.0955126294456683</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>0.05377639678080426</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.05039013961547312</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +956,22 @@
         <v>0.03154835773492604</v>
       </c>
       <c r="E17" t="n">
+        <v>0.08664038830052956</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.05455898425043459</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0231969164151522</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.03187520853044878</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>-0.05561971527509346</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.03092141997930931</v>
       </c>
     </row>
     <row r="18">
@@ -784,10 +988,22 @@
         <v>-0.002487563471801568</v>
       </c>
       <c r="E18" t="n">
+        <v>-0.0807232112724412</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.03146326945578526</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1146033827390038</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.02517073834655159</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>-0.05304273598448095</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001486352390870138</v>
       </c>
     </row>
     <row r="19">
@@ -804,10 +1020,22 @@
         <v>0.002487563471801568</v>
       </c>
       <c r="E19" t="n">
+        <v>0.04752514186284529</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.004555816535861013</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05556985115481083</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.05215334508799163</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>0.04563529470661898</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.00612652934216662</v>
       </c>
     </row>
     <row r="20">
@@ -824,10 +1052,22 @@
         <v>0.04017582306351963</v>
       </c>
       <c r="E20" t="n">
+        <v>0.1595609725555063</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.04009445720187799</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.079210760870144</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.03740418222688291</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>0.001857010747212673</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.04043088796840166</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +1084,22 @@
         <v>-0.003586375631227323</v>
       </c>
       <c r="E21" t="n">
+        <v>0.03533936644530922</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.06774598853238833</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01117330059812494</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.02298951822469864</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>-0.0225150223676347</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.008494792541860363</v>
       </c>
     </row>
     <row r="22">
@@ -864,10 +1116,22 @@
         <v>-0.02056938824810883</v>
       </c>
       <c r="E22" t="n">
+        <v>0.0529701284559021</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02992167986504946</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.002466092495193806</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.0570531894488373</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>0.0299087713925732</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.007805823445917071</v>
       </c>
     </row>
     <row r="23">
@@ -884,10 +1148,22 @@
         <v>0.02891767763957986</v>
       </c>
       <c r="E23" t="n">
+        <v>-0.006607953560031632</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.01369884435816227</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.0236771185268303</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.02298951822469864</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>-0.08751376333528782</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.01668166740112653</v>
       </c>
     </row>
     <row r="24">
@@ -904,10 +1180,22 @@
         <v>-0.03751196012691382</v>
       </c>
       <c r="E24" t="n">
+        <v>-0.009994530724996231</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0383361487435474</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02859113332925922</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.003868476777920016</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>-0.04628075256400654</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.002395118222393577</v>
       </c>
     </row>
     <row r="25">
@@ -924,10 +1212,22 @@
         <v>-0.007425776696849518</v>
       </c>
       <c r="E25" t="n">
+        <v>-0.001116694700074916</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02620237239402412</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03255260303774854</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.02290176428668467</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>0.02494931904794884</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.003386378202188567</v>
       </c>
     </row>
     <row r="26">
@@ -944,10 +1244,22 @@
         <v>-0.05489572173191704</v>
       </c>
       <c r="E26" t="n">
+        <v>-0.03989132902730219</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.02399242674322144</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.115561306237721</v>
+      </c>
+      <c r="H26" t="n">
         <v>-0.02097312338027901</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>0.001026167355311802</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.02703488516230124</v>
       </c>
     </row>
     <row r="27">
@@ -964,10 +1276,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0.005797117684326558</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02614528010432249</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1060260730867211</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.003846158587478499</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>0.02030526616074591</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.005934158715890092</v>
       </c>
     </row>
     <row r="28">
@@ -984,10 +1308,22 @@
         <v>0.01949379468100121</v>
       </c>
       <c r="E28" t="n">
+        <v>-0.1060029827534876</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.05526267867504941</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.04281999718292839</v>
+      </c>
+      <c r="H28" t="n">
         <v>-0.05930591395884655</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>-0.04312783350439098</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.008431849747399411</v>
       </c>
     </row>
     <row r="29">
@@ -1004,10 +1340,22 @@
         <v>0.03166825749886693</v>
       </c>
       <c r="E29" t="n">
+        <v>0.2338825959687743</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01578386770126183</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03922071315328157</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.1261211121327634</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>-0.01479942444593885</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0648022023925563</v>
       </c>
     </row>
     <row r="30">
@@ -1024,10 +1372,22 @@
         <v>-0.002496880198587181</v>
       </c>
       <c r="E30" t="n">
+        <v>0.1952923442184451</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.04377066305532828</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1667766793259577</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.07935195679990148</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
         <v>-0.01286191364240796</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.02184249620924916</v>
       </c>
     </row>
     <row r="31">
@@ -1044,10 +1404,22 @@
         <v>0.04759897879927921</v>
       </c>
       <c r="E31" t="n">
+        <v>0.05296553557991235</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1055746254969914</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0754150669589464</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.1675642236871102</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>0.08575204426945016</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.05102819109130685</v>
       </c>
     </row>
     <row r="32">
@@ -1064,10 +1436,22 @@
         <v>0.008308653139016631</v>
       </c>
       <c r="E32" t="n">
+        <v>0.003960401216096976</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05437140378212701</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03704127168034921</v>
+      </c>
+      <c r="H32" t="n">
         <v>-0.02269600965377183</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>0.01181116092834467</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005600891153033416</v>
       </c>
     </row>
     <row r="33">
@@ -1084,10 +1468,22 @@
         <v>-0.007117467768863683</v>
       </c>
       <c r="E33" t="n">
+        <v>0.01178795575204195</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.04860769906537676</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.02578411715571471</v>
+      </c>
+      <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
         <v>0.02702867238791917</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.01745081197876175</v>
       </c>
     </row>
     <row r="34">
@@ -1104,10 +1500,22 @@
         <v>-0.004773278752657983</v>
       </c>
       <c r="E34" t="n">
+        <v>-0.08559193033540335</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.03906746819090934</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.06354399097106311</v>
+      </c>
+      <c r="H34" t="n">
         <v>-0.008645586992853893</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
         <v>-0.01149437942573517</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.007489451432620697</v>
       </c>
     </row>
     <row r="35">
@@ -1124,10 +1532,22 @@
         <v>-0.01567241240763151</v>
       </c>
       <c r="E35" t="n">
+        <v>0.04980282248381851</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.007936549595735976</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01773445493976888</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.002890175422233021</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
         <v>-0.009680617710723372</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.01953379751095596</v>
       </c>
     </row>
     <row r="36">
@@ -1144,10 +1564,22 @@
         <v>0.04397618857048347</v>
       </c>
       <c r="E36" t="n">
+        <v>0.05513207069471626</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1138226344402868</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.03831886430213638</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.07770898432731688</v>
       </c>
-      <c r="F36" t="n">
+      <c r="I36" t="n">
         <v>-0.01174181787668349</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03571389401778724</v>
       </c>
     </row>
     <row r="37">
@@ -1164,10 +1596,22 @@
         <v>0.03541203822325567</v>
       </c>
       <c r="E37" t="n">
+        <v>-0.03509131981127034</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.01779406380046833</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.01897590145900541</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.03412404583612716</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
         <v>0.01562531790308119</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01115029015825719</v>
       </c>
     </row>
     <row r="38">
@@ -1184,10 +1628,22 @@
         <v>0.08392018441995708</v>
       </c>
       <c r="E38" t="n">
+        <v>0.003960401216096976</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.06935187346531801</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04860769906537676</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.1202173463021881</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>0.06016852146645268</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.02575663833515485</v>
       </c>
     </row>
     <row r="39">
@@ -1204,10 +1660,22 @@
         <v>-0.1158499208073382</v>
       </c>
       <c r="E39" t="n">
+        <v>-0.01996074256253788</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.0462807525640061</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.02775386278217118</v>
+      </c>
+      <c r="H39" t="n">
         <v>-0.09978240788788106</v>
       </c>
-      <c r="F39" t="n">
+      <c r="I39" t="n">
         <v>-0.009165967014080234</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.001228942180169668</v>
       </c>
     </row>
     <row r="40">
@@ -1224,10 +1692,22 @@
         <v>-0.008144314941685771</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.05037035938894974</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.0480399765873627</v>
+      </c>
+      <c r="H40" t="n">
         <v>-0.02690745291992425</v>
       </c>
-      <c r="F40" t="n">
+      <c r="I40" t="n">
         <v>0.04148475826924747</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01635326416447391</v>
       </c>
     </row>
     <row r="41">
@@ -1244,10 +1724,22 @@
         <v>0.02080999951379336</v>
       </c>
       <c r="E41" t="n">
+        <v>0.01996074256253788</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.003683245416296277</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01756142692994755</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.05434059470008101</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
         <v>0.01229163851155679</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01953936296583514</v>
       </c>
     </row>
     <row r="42">
@@ -1264,10 +1756,22 @@
         <v>-0.0337437482983618</v>
       </c>
       <c r="E42" t="n">
+        <v>-0.0362212634343182</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.03174869831457983</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.01953187091724606</v>
+      </c>
+      <c r="H42" t="n">
         <v>-0.1467977055219993</v>
       </c>
-      <c r="F42" t="n">
+      <c r="I42" t="n">
         <v>0.03262091816926649</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.002909707700137432</v>
       </c>
     </row>
     <row r="43">
@@ -1284,10 +1788,22 @@
         <v>0.003544008434729573</v>
       </c>
       <c r="E43" t="n">
+        <v>0.06351340572232544</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.08193844283843532</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.04436600295498438</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.01834913866819576</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="n">
         <v>0.03648829326313585</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.01254831318423122</v>
       </c>
     </row>
     <row r="44">
@@ -1304,10 +1820,22 @@
         <v>-0.02628586227092544</v>
       </c>
       <c r="E44" t="n">
+        <v>-0.03522869188374322</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.05942342047080063</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.05505977718302768</v>
+      </c>
+      <c r="H44" t="n">
         <v>-0.01550418653596441</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="n">
         <v>0.03520363519298009</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.01104694647136384</v>
       </c>
     </row>
     <row r="45">
@@ -1324,10 +1852,22 @@
         <v>0.04844420325956422</v>
       </c>
       <c r="E45" t="n">
+        <v>0.05804336964991474</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.05064373281875501</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.03267078228954912</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.06462729560609226</v>
       </c>
-      <c r="F45" t="n">
+      <c r="I45" t="n">
         <v>0.01560094044247951</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.02695951942373576</v>
       </c>
     </row>
     <row r="46">
@@ -1344,10 +1884,22 @@
         <v>-0.002309469848662538</v>
       </c>
       <c r="E46" t="n">
+        <v>-0.1410785982599059</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.01600034134644135</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02009200008268852</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.001330672185704707</v>
       </c>
-      <c r="F46" t="n">
+      <c r="I46" t="n">
         <v>-0.04108002574346425</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.004766502283523266</v>
       </c>
     </row>
     <row r="47">
@@ -1364,10 +1916,22 @@
         <v>0.0329762682416348</v>
       </c>
       <c r="E47" t="n">
+        <v>0.008620743043907808</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1276899920559149</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.03496216256213991</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.04549192446756312</v>
       </c>
-      <c r="F47" t="n">
+      <c r="I47" t="n">
         <v>-0.001614205354541376</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.03233820027524814</v>
       </c>
     </row>
     <row r="48">
@@ -1384,10 +1948,22 @@
         <v>0.01333353086946509</v>
       </c>
       <c r="E48" t="n">
+        <v>-0.0393924017106615</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.1330808406907913</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.02272825107755594</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.06040036466729859</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>0.06866971750126627</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.004301206659937051</v>
       </c>
     </row>
     <row r="49">
@@ -1404,10 +1980,22 @@
         <v>-0.001104362343053111</v>
       </c>
       <c r="E49" t="n">
+        <v>-0.1274276096865048</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1704998178287878</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.07972347383203848</v>
+      </c>
+      <c r="H49" t="n">
         <v>-0.001196888233845783</v>
       </c>
-      <c r="F49" t="n">
+      <c r="I49" t="n">
         <v>-0.01673042825920934</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.03538143048061393</v>
       </c>
     </row>
     <row r="50">
@@ -1424,10 +2012,22 @@
         <v>0.02939787098566482</v>
       </c>
       <c r="E50" t="n">
+        <v>0.00404858852600043</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02323230149326827</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02053460244170768</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.05589347575310466</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>0.01673042825920934</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01264434098211176</v>
       </c>
     </row>
     <row r="51">
@@ -1444,10 +2044,22 @@
         <v>0.06037212844304474</v>
       </c>
       <c r="E51" t="n">
+        <v>0.08237099743312726</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.06466899279278948</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0591888713903308</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.06361793898141954</v>
       </c>
-      <c r="F51" t="n">
+      <c r="I51" t="n">
         <v>0.05144411257650994</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0277700205644269</v>
       </c>
     </row>
     <row r="52">
@@ -1464,10 +2076,22 @@
         <v>0.02395324102249274</v>
       </c>
       <c r="E52" t="n">
+        <v>0.05431198935374049</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.05519954935461557</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05588045839445677</v>
+      </c>
+      <c r="H52" t="n">
         <v>-0.1171190690959047</v>
       </c>
-      <c r="F52" t="n">
+      <c r="I52" t="n">
         <v>-0.02907181482197707</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.01277295276595503</v>
       </c>
     </row>
     <row r="53">
@@ -1484,10 +2108,22 @@
         <v>-0.120375149679508</v>
       </c>
       <c r="E53" t="n">
+        <v>0.06398770867528381</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.02016566959459443</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.05635293655113127</v>
+      </c>
+      <c r="H53" t="n">
         <v>-0.1519627127684284</v>
       </c>
-      <c r="F53" t="n">
+      <c r="I53" t="n">
         <v>-0.004434597067865198</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.002697549768994278</v>
       </c>
     </row>
     <row r="54">
@@ -1504,10 +2140,22 @@
         <v>-0.008938607000811505</v>
       </c>
       <c r="E54" t="n">
+        <v>0.01232048438804068</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.05024312483187243</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02536061528722211</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.004163781171779846</v>
       </c>
-      <c r="F54" t="n">
+      <c r="I54" t="n">
         <v>-0.02095885102084338</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.01421785076789739</v>
       </c>
     </row>
     <row r="55">
@@ -1524,10 +2172,22 @@
         <v>0.001121705109200288</v>
       </c>
       <c r="E55" t="n">
+        <v>0.008130126083250033</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.003333336419758304</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.01784536032000972</v>
       </c>
-      <c r="F55" t="n">
+      <c r="I55" t="n">
         <v>0.02095885102084338</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.008332862088678894</v>
       </c>
     </row>
     <row r="56">
@@ -1544,10 +2204,22 @@
         <v>0.006703935722190302</v>
       </c>
       <c r="E56" t="n">
+        <v>0.004040409537005019</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09113771199852438</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01157994743095969</v>
+      </c>
+      <c r="H56" t="n">
         <v>-0.01369884435816182</v>
       </c>
-      <c r="F56" t="n">
+      <c r="I56" t="n">
         <v>-0.0104245173358839</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0007671403914777386</v>
       </c>
     </row>
     <row r="57">
@@ -1564,10 +2236,22 @@
         <v>-0.006703935722190302</v>
       </c>
       <c r="E57" t="n">
+        <v>-0.02449102000829573</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.1065226308380036</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.06278567231015675</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.03256732866254541</v>
       </c>
-      <c r="F57" t="n">
+      <c r="I57" t="n">
         <v>-0.1516587772170794</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.007269606436045351</v>
       </c>
     </row>
     <row r="58">
@@ -1584,10 +2268,22 @@
         <v>-0.02497292093138004</v>
       </c>
       <c r="E58" t="n">
+        <v>-0.109040372616227</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.03428907347863186</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.04111392270799463</v>
+      </c>
+      <c r="H58" t="n">
         <v>-0.09078106589466906</v>
       </c>
-      <c r="F58" t="n">
+      <c r="I58" t="n">
         <v>-0.07036264942356008</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.01869358298632839</v>
       </c>
     </row>
     <row r="59">
@@ -1604,10 +2300,22 @@
         <v>-0.004608303086194088</v>
       </c>
       <c r="E59" t="n">
+        <v>-0.009259325412797281</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.03496216256213991</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.005459522204898981</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.004376374599798893</v>
       </c>
-      <c r="F59" t="n">
+      <c r="I59" t="n">
         <v>-0.007504725654067457</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02551711866703421</v>
       </c>
     </row>
     <row r="60">
@@ -1624,10 +2332,22 @@
         <v>0.02283204204264555</v>
       </c>
       <c r="E60" t="n">
+        <v>-0.009345862418236983</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.0789884113186301</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03915090756182504</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.04830484506259936</v>
       </c>
-      <c r="F60" t="n">
+      <c r="I60" t="n">
         <v>-0.001885014695771403</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.01699023563199553</v>
       </c>
     </row>
     <row r="61">
@@ -1644,10 +2364,22 @@
         <v>0.002254792387089477</v>
       </c>
       <c r="E61" t="n">
+        <v>0.009345862418236983</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.2676620302183386</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.01386504013717182</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.01786989132956673</v>
       </c>
-      <c r="F61" t="n">
+      <c r="I61" t="n">
         <v>0.005644417619676823</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.01270904995611843</v>
       </c>
     </row>
     <row r="62">
@@ -1664,10 +2396,22 @@
         <v>-0.02393276621162821</v>
       </c>
       <c r="E62" t="n">
+        <v>-0.1079478392227768</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.1280659026119677</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.03324890695822003</v>
+      </c>
+      <c r="H62" t="n">
         <v>-0.01371763622879918</v>
       </c>
-      <c r="F62" t="n">
+      <c r="I62" t="n">
         <v>-0.05396299489048451</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.01805481324572433</v>
       </c>
     </row>
     <row r="63">
@@ -1684,10 +2428,22 @@
         <v>-0.02688648218458489</v>
       </c>
       <c r="E63" t="n">
+        <v>-0.1257159727656116</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.05681647504366083</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.005323881252749629</v>
+      </c>
+      <c r="H63" t="n">
         <v>-0.08350172184532756</v>
       </c>
-      <c r="F63" t="n">
+      <c r="I63" t="n">
         <v>-0.02709648968813871</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.005825353768258879</v>
       </c>
     </row>
     <row r="64">
@@ -1704,10 +2460,22 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
+        <v>0.08121710592947817</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.03030534949532893</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.1324245856493311</v>
+      </c>
+      <c r="H64" t="n">
         <v>-0.01056613603788215</v>
       </c>
-      <c r="F64" t="n">
+      <c r="I64" t="n">
         <v>-0.1221159084985373</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.006388511397972252</v>
       </c>
     </row>
     <row r="65">
@@ -1724,10 +2492,22 @@
         <v>0.009434032233358813</v>
       </c>
       <c r="E65" t="n">
+        <v>0.04760285277372489</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.002989538848365836</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.1292587118187436</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.01356463903413907</v>
       </c>
-      <c r="F65" t="n">
+      <c r="I65" t="n">
         <v>0.03167685665357034</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.00842333987841748</v>
       </c>
     </row>
     <row r="66">
@@ -1744,10 +2524,22 @@
         <v>0.04700005404718288</v>
       </c>
       <c r="E66" t="n">
+        <v>0.1094842328416883</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.08379633774198592</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.06939199342399949</v>
       </c>
-      <c r="F66" t="n">
+      <c r="I66" t="n">
         <v>-0.06083344094502596</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.004187734882419747</v>
       </c>
     </row>
     <row r="67">
@@ -1764,10 +2556,22 @@
         <v>0.05976792137852316</v>
       </c>
       <c r="E67" t="n">
+        <v>0.158111081043355</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.03039747718437136</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03350641188984227</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.08176018340700164</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>-0.06099451270284195</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.04075515218301895</v>
       </c>
     </row>
     <row r="68">
@@ -1784,10 +2588,22 @@
         <v>0.03013214978776091</v>
       </c>
       <c r="E68" t="n">
+        <v>-0.02805795279515788</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.01555241300748467</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.008633147144702313</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.03912170815344851</v>
       </c>
-      <c r="F68" t="n">
+      <c r="I68" t="n">
         <v>-0.04765872901195989</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0009612885248397873</v>
       </c>
     </row>
     <row r="69">
@@ -1804,10 +2620,22 @@
         <v>0.07015221283820461</v>
       </c>
       <c r="E69" t="n">
+        <v>0.02012140319942191</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.009360442759563714</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.002894358026364507</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.06353244590663465</v>
       </c>
-      <c r="F69" t="n">
+      <c r="I69" t="n">
         <v>0.001318391753258208</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0113826990055248</v>
       </c>
     </row>
     <row r="70">
@@ -1824,10 +2652,22 @@
         <v>-0.1087589896169381</v>
       </c>
       <c r="E70" t="n">
+        <v>-0.04065600564112959</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0245411089161176</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.02008675856673747</v>
+      </c>
+      <c r="H70" t="n">
         <v>-0.1942389778956031</v>
       </c>
-      <c r="F70" t="n">
+      <c r="I70" t="n">
         <v>0.019570096194097</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.002420589730718348</v>
       </c>
     </row>
     <row r="71">
@@ -1844,10 +2684,22 @@
         <v>0.05283465906593854</v>
       </c>
       <c r="E71" t="n">
+        <v>0.1283311728974157</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.04445176257083405</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.1114498922593601</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.04279465966608864</v>
       </c>
-      <c r="F71" t="n">
+      <c r="I71" t="n">
         <v>0.002580646593491664</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.01768072815451305</v>
       </c>
     </row>
     <row r="72">
@@ -1864,10 +2716,22 @@
         <v>-0.03178124986810582</v>
       </c>
       <c r="E72" t="n">
+        <v>-0.04860769906537676</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.04142604165429686</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.06428442381693067</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.1171822546229926</v>
       </c>
-      <c r="F72" t="n">
+      <c r="I72" t="n">
         <v>-0.04345647546545939</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.05175173337796046</v>
       </c>
     </row>
     <row r="73">
@@ -1884,10 +2748,22 @@
         <v>0.04082199452025481</v>
       </c>
       <c r="E73" t="n">
+        <v>0.01897590145900541</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.05295354682536413</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.1518948701632468</v>
+      </c>
+      <c r="H73" t="n">
         <v>-0.007237667300230122</v>
       </c>
-      <c r="F73" t="n">
+      <c r="I73" t="n">
         <v>0.05115869582755161</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.03842562756835832</v>
       </c>
     </row>
     <row r="74">
@@ -1904,10 +2780,22 @@
         <v>0.06391332574365283</v>
       </c>
       <c r="E74" t="n">
+        <v>-0.01515180502060254</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.02026118513982178</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.006289328907564062</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.01680711831638071</v>
       </c>
-      <c r="F74" t="n">
+      <c r="I74" t="n">
         <v>0.01017820491575616</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.03154103176697554</v>
       </c>
     </row>
     <row r="75">
@@ -1924,10 +2812,22 @@
         <v>0.03139685406067239</v>
       </c>
       <c r="E75" t="n">
+        <v>-0.1130233884033949</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.008733679968754515</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.07821574644502416</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.04424470179775764</v>
       </c>
-      <c r="F75" t="n">
+      <c r="I75" t="n">
         <v>-0.06268370229368658</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.016039481492923</v>
       </c>
     </row>
     <row r="76">
@@ -1944,10 +2844,22 @@
         <v>0.05826890812397512</v>
       </c>
       <c r="E76" t="n">
+        <v>0.2180021518137911</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.03977797145691886</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.04474648700562245</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.06503668860330514</v>
       </c>
-      <c r="F76" t="n">
+      <c r="I76" t="n">
         <v>-0.01356872920606911</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.01869709348699367</v>
       </c>
     </row>
     <row r="77">
@@ -1964,10 +2876,22 @@
         <v>0.018692133012153</v>
       </c>
       <c r="E77" t="n">
+        <v>0.2562658762184018</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01383147914846194</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.1432088875065878</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.04384836029208827</v>
       </c>
-      <c r="F77" t="n">
+      <c r="I77" t="n">
         <v>-0.002735979818874412</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01817623373924526</v>
       </c>
     </row>
     <row r="78">
@@ -1984,10 +2908,22 @@
         <v>0.06674567953004651</v>
       </c>
       <c r="E78" t="n">
+        <v>0.03911841659547122</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.03243527575315408</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.008391657636248162</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.1119779997200911</v>
       </c>
-      <c r="F78" t="n">
+      <c r="I78" t="n">
         <v>-0.03768764233177224</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.01314931762932581</v>
       </c>
     </row>
     <row r="79">
@@ -2004,10 +2940,22 @@
         <v>0.04616204176316252</v>
       </c>
       <c r="E79" t="n">
+        <v>-0.02328695137879055</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01058210933053649</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1569323227891353</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.2240563765715695</v>
       </c>
-      <c r="F79" t="n">
+      <c r="I79" t="n">
         <v>0.01971894878895553</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.002751924676084982</v>
       </c>
     </row>
     <row r="80">
@@ -2024,10 +2972,22 @@
         <v>0.05699131550218883</v>
       </c>
       <c r="E80" t="n">
+        <v>-0.2349935912317056</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.05379017458613777</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.1389884320875803</v>
+      </c>
+      <c r="H80" t="n">
         <v>-0.1750487974648749</v>
       </c>
-      <c r="F80" t="n">
+      <c r="I80" t="n">
         <v>0.05164190864940421</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.0117661980720456</v>
       </c>
     </row>
     <row r="81">
@@ -2044,10 +3004,22 @@
         <v>-0.0450330265133152</v>
       </c>
       <c r="E81" t="n">
+        <v>-0.009983443984182827</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.03553673427678694</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.2973041398158434</v>
+      </c>
+      <c r="H81" t="n">
         <v>-0.1599646496926779</v>
       </c>
-      <c r="F81" t="n">
+      <c r="I81" t="n">
         <v>0.01576905211823165</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.01059411950870093</v>
       </c>
     </row>
     <row r="82">
@@ -2064,10 +3036,22 @@
         <v>-0.05812033075203615</v>
       </c>
       <c r="E82" t="n">
+        <v>-0.253706201724377</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.03953083875663532</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.156147761680042</v>
+      </c>
+      <c r="H82" t="n">
         <v>-0.2155196262035508</v>
       </c>
-      <c r="F82" t="n">
+      <c r="I82" t="n">
         <v>-0.1043469775995862</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.006082482410933565</v>
       </c>
     </row>
     <row r="83">
@@ -2084,10 +3068,22 @@
         <v>0.07433291872985937</v>
       </c>
       <c r="E83" t="n">
+        <v>-0.004319661144516651</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.09726330542520678</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.01846874873950721</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.001265022306586872</v>
       </c>
-      <c r="F83" t="n">
+      <c r="I83" t="n">
         <v>0.007209836566749672</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.003847979759216358</v>
       </c>
     </row>
     <row r="84">
@@ -2104,10 +3100,22 @@
         <v>-0.1014694601648598</v>
       </c>
       <c r="E84" t="n">
+        <v>-0.06713930283762792</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.1245129478725824</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.006600684031352166</v>
+      </c>
+      <c r="H84" t="n">
         <v>-0.0165714435892621</v>
       </c>
-      <c r="F84" t="n">
+      <c r="I84" t="n">
         <v>-0.06991694363032952</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.01625926847293968</v>
       </c>
     </row>
     <row r="85">
@@ -2124,10 +3132,22 @@
         <v>-0.1183900159481608</v>
       </c>
       <c r="E85" t="n">
+        <v>-0.1625189294977751</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.1615444288521966</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.08041069295827796</v>
+      </c>
+      <c r="H85" t="n">
         <v>-0.4562173501357019</v>
       </c>
-      <c r="F85" t="n">
+      <c r="I85" t="n">
         <v>-0.09023831770636459</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.03429639313062616</v>
       </c>
     </row>
     <row r="86">
@@ -2144,10 +3164,22 @@
         <v>-0.2033052090945451</v>
       </c>
       <c r="E86" t="n">
+        <v>-0.2155472044222746</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.01967276559870479</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.07705673949497438</v>
+      </c>
+      <c r="H86" t="n">
         <v>-0.2897125300021628</v>
       </c>
-      <c r="F86" t="n">
+      <c r="I86" t="n">
         <v>-0.003378381591627289</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.02956845137539155</v>
       </c>
     </row>
     <row r="87">
@@ -2164,10 +3196,22 @@
         <v>0.001115449083865627</v>
       </c>
       <c r="E87" t="n">
+        <v>0.2122738790773058</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1331173996564901</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.2205562277492588</v>
+      </c>
+      <c r="H87" t="n">
         <v>-0.06870255358681376</v>
       </c>
-      <c r="F87" t="n">
+      <c r="I87" t="n">
         <v>0.110423817614373</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0881160445534892</v>
       </c>
     </row>
     <row r="88">
@@ -2184,10 +3228,22 @@
         <v>0.003338901265514505</v>
       </c>
       <c r="E88" t="n">
+        <v>-0.1368154678257127</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.206189038200598</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1107346501299564</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.01583906402974566</v>
       </c>
-      <c r="F88" t="n">
+      <c r="I88" t="n">
         <v>-0.0121952730938184</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01616371399890681</v>
       </c>
     </row>
     <row r="89">
@@ -2204,10 +3260,22 @@
         <v>-0.006688988150796327</v>
       </c>
       <c r="E89" t="n">
+        <v>-0.278534399514994</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.03846628082779624</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.1264007668743559</v>
+      </c>
+      <c r="H89" t="n">
         <v>-0.01729149711006084</v>
       </c>
-      <c r="F89" t="n">
+      <c r="I89" t="n">
         <v>-0.05032508388751555</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.01528067905413089</v>
       </c>
     </row>
     <row r="90">
@@ -2224,10 +3292,22 @@
         <v>-0.02148188881590007</v>
       </c>
       <c r="E90" t="n">
+        <v>-0.1770375286473493</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.1086338410027952</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.1183094899986292</v>
+      </c>
+      <c r="H90" t="n">
         <v>-0.001454545710994459</v>
       </c>
-      <c r="F90" t="n">
+      <c r="I90" t="n">
         <v>-0.02614528010432249</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.008210363982531277</v>
       </c>
     </row>
     <row r="91">
@@ -2244,10 +3324,22 @@
         <v>-0.003434462448634434</v>
       </c>
       <c r="E91" t="n">
+        <v>-0.1685823809106508</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.1218898176090373</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.1315023083977418</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.002906978791309633</v>
       </c>
-      <c r="F91" t="n">
+      <c r="I91" t="n">
         <v>-0.02006756305080915</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.01791779369367141</v>
       </c>
     </row>
     <row r="92">
@@ -2264,10 +3356,22 @@
         <v>0.01140263209781134</v>
       </c>
       <c r="E92" t="n">
+        <v>-0.06274675498999827</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.06043173918491762</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.01360565205577835</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.00434468460401094</v>
       </c>
-      <c r="F92" t="n">
+      <c r="I92" t="n">
         <v>-0.01360565205577879</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.01692287414854121</v>
       </c>
     </row>
     <row r="93">
@@ -2284,10 +3388,22 @@
         <v>-0.01830714744435591</v>
       </c>
       <c r="E93" t="n">
+        <v>-0.1662619157766092</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.01320151185853558</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.04196419909903248</v>
+      </c>
+      <c r="H93" t="n">
         <v>-0.007251663395320573</v>
       </c>
-      <c r="F93" t="n">
+      <c r="I93" t="n">
         <v>-0.03484673133016791</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.01614529753424243</v>
       </c>
     </row>
     <row r="94">
@@ -2304,10 +3420,22 @@
         <v>-0.02336554895621212</v>
       </c>
       <c r="E94" t="n">
+        <v>-0.04204823624349974</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.006666691358189425</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.001427551991185716</v>
+      </c>
+      <c r="H94" t="n">
         <v>-0.002915453960123937</v>
       </c>
-      <c r="F94" t="n">
+      <c r="I94" t="n">
         <v>-0.005333345975362391</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.014556664660617</v>
       </c>
     </row>
     <row r="95">
@@ -2324,10 +3452,22 @@
         <v>0.0222101473256564</v>
       </c>
       <c r="E95" t="n">
+        <v>-0.1118573755761605</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.05499667574744871</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.03336059909419475</v>
+      </c>
+      <c r="H95" t="n">
         <v>-0.02214112587721351</v>
       </c>
-      <c r="F95" t="n">
+      <c r="I95" t="n">
         <v>0.008873172680486263</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01144251291163911</v>
       </c>
     </row>
     <row r="96">
@@ -2344,10 +3484,22 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
+        <v>-0.1124371445971253</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.03597510245827795</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.03146326945578481</v>
+      </c>
+      <c r="H96" t="n">
         <v>-0.02111692344092297</v>
       </c>
-      <c r="F96" t="n">
+      <c r="I96" t="n">
         <v>-0.007092228309491855</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.0249122128604693</v>
       </c>
     </row>
     <row r="97">
@@ -2364,10 +3516,22 @@
         <v>-0.01867032062053209</v>
       </c>
       <c r="E97" t="n">
+        <v>0.1072780617870981</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.02531780798428951</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0151060274310133</v>
+      </c>
+      <c r="H97" t="n">
         <v>-0.02939113337192545</v>
       </c>
-      <c r="F97" t="n">
+      <c r="I97" t="n">
         <v>-0.001780944370994408</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.006197631019313476</v>
       </c>
     </row>
     <row r="98">
@@ -2384,10 +3548,22 @@
         <v>-0.008279172069020735</v>
       </c>
       <c r="E98" t="n">
+        <v>-0.1247034785009573</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.1923718926474556</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03390155167568132</v>
+      </c>
+      <c r="H98" t="n">
         <v>-0.007880261425305957</v>
       </c>
-      <c r="F98" t="n">
+      <c r="I98" t="n">
         <v>-0.008952611272114108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02400349582082129</v>
       </c>
     </row>
     <row r="99">
@@ -2404,10 +3580,22 @@
         <v>-0.01315021938687844</v>
       </c>
       <c r="E99" t="n">
+        <v>-0.1745394163518998</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.00862074304390692</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.1514971985935798</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.02654332255723268</v>
       </c>
-      <c r="F99" t="n">
+      <c r="I99" t="n">
         <v>-0.0236589743166471</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.03353871395841068</v>
       </c>
     </row>
     <row r="100">
@@ -2424,10 +3612,22 @@
         <v>-0.00967359417837832</v>
       </c>
       <c r="E100" t="n">
+        <v>-0.08489944378648628</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.05741090721333908</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.001684920364919407</v>
+      </c>
+      <c r="H100" t="n">
         <v>-0.02812685416287675</v>
       </c>
-      <c r="F100" t="n">
+      <c r="I100" t="n">
         <v>-0.03180810719622551</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.04293321028774066</v>
       </c>
     </row>
     <row r="101">
@@ -2444,10 +3644,22 @@
         <v>0.02282381356525676</v>
       </c>
       <c r="E101" t="n">
+        <v>0.1347964149311096</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.07550755250814545</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05884050002293328</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.009463793030950018</v>
       </c>
-      <c r="F101" t="n">
+      <c r="I101" t="n">
         <v>-0.00763362485507102</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.05654877354975874</v>
       </c>
     </row>
     <row r="102">
@@ -2464,10 +3676,22 @@
         <v>0.03271319740630263</v>
       </c>
       <c r="E102" t="n">
+        <v>0.03264707783666587</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.004889985294191934</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.04044096955851062</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.02939113337192545</v>
       </c>
-      <c r="F102" t="n">
+      <c r="I102" t="n">
         <v>0.0357516909638429</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.02545638674954454</v>
       </c>
     </row>
     <row r="103">
@@ -2484,10 +3708,22 @@
         <v>0.04824266894633933</v>
       </c>
       <c r="E103" t="n">
+        <v>0.1562897180760081</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.07515272237934489</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.006116227017435971</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.01362625171176557</v>
       </c>
-      <c r="F103" t="n">
+      <c r="I103" t="n">
         <v>0.0626883818494095</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.009809495159412762</v>
       </c>
     </row>
     <row r="104">
@@ -2504,10 +3740,22 @@
         <v>-0.01879546762003814</v>
       </c>
       <c r="E104" t="n">
+        <v>0.06899287148695121</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.08663423197290188</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.07957067556658926</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.02377526549365783</v>
       </c>
-      <c r="F104" t="n">
+      <c r="I104" t="n">
         <v>0.03245374484973862</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.04845353454258472</v>
       </c>
     </row>
     <row r="105">
@@ -2524,10 +3772,22 @@
         <v>-0.03290143619438846</v>
       </c>
       <c r="E105" t="n">
+        <v>-0.2360469561501177</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.008333381559144204</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.01406492946740334</v>
+      </c>
+      <c r="H105" t="n">
         <v>-0.01479316917783047</v>
       </c>
-      <c r="F105" t="n">
+      <c r="I105" t="n">
         <v>-0.02725892797263452</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.02760364429913587</v>
       </c>
     </row>
     <row r="106">
@@ -2544,10 +3804,22 @@
         <v>0.008041398874993444</v>
       </c>
       <c r="E106" t="n">
+        <v>-0.2920204740503789</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.01659789140903767</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.1090918632706841</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.008902135940593414</v>
       </c>
-      <c r="F106" t="n">
+      <c r="I106" t="n">
         <v>0.01712370607859137</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.005700230049818344</v>
       </c>
     </row>
     <row r="107">
@@ -2564,10 +3836,22 @@
         <v>-0.03256101604931239</v>
       </c>
       <c r="E107" t="n">
+        <v>-0.2304163106432897</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.1459539126230798</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.12246688496881</v>
+      </c>
+      <c r="H107" t="n">
         <v>-0.02240571697526672</v>
       </c>
-      <c r="F107" t="n">
+      <c r="I107" t="n">
         <v>0.01181448341376301</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0008228215948076212</v>
       </c>
     </row>
     <row r="108">
@@ -2584,10 +3868,22 @@
         <v>-0.01788956475077486</v>
       </c>
       <c r="E108" t="n">
+        <v>-0.06405202149285039</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.03278982282299081</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.01776245633984042</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.02092752010595555</v>
       </c>
-      <c r="F108" t="n">
+      <c r="I108" t="n">
         <v>-0.01692087748833693</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.009104057263032317</v>
       </c>
     </row>
     <row r="109">
@@ -2604,10 +3900,22 @@
         <v>-0.0024096397201534</v>
       </c>
       <c r="E109" t="n">
+        <v>0.05672598140077767</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.07659244548138355</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.01776245633984042</v>
+      </c>
+      <c r="H109" t="n">
         <v>-0.002962965130656858</v>
       </c>
-      <c r="F109" t="n">
+      <c r="I109" t="n">
         <v>0.008496227829085434</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.01895445704568566</v>
       </c>
     </row>
     <row r="110">
@@ -2624,10 +3932,22 @@
         <v>-0.01091581487699589</v>
       </c>
       <c r="E110" t="n">
+        <v>-0.06062462181643502</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.09929822098228058</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.05055227916283123</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.005917177028088361</v>
       </c>
-      <c r="F110" t="n">
+      <c r="I110" t="n">
         <v>-0.003389833754511518</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.01092329356970367</v>
       </c>
     </row>
     <row r="111">
@@ -2644,10 +3964,22 @@
         <v>-0.01722059775167084</v>
       </c>
       <c r="E111" t="n">
+        <v>-0.02371652661731583</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.02447285651872555</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.03390155167568132</v>
+      </c>
+      <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="F111" t="n">
+      <c r="I111" t="n">
         <v>0.001696353248178628</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.03283835457173723</v>
       </c>
     </row>
     <row r="112">
@@ -2664,10 +3996,22 @@
         <v>0.00123992576332066</v>
       </c>
       <c r="E112" t="n">
+        <v>0.03149866705937088</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.06513930217096142</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.04706751085798588</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.02332467256640891</v>
       </c>
-      <c r="F112" t="n">
+      <c r="I112" t="n">
         <v>0.01680711831638115</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.02284563100189985</v>
       </c>
     </row>
     <row r="113">
@@ -2684,10 +4028,22 @@
         <v>-0.01624020702281292</v>
       </c>
       <c r="E113" t="n">
+        <v>-0.1148802759984222</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.05039144553640584</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.01619468591998041</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.00287769982761521</v>
       </c>
-      <c r="F113" t="n">
+      <c r="I113" t="n">
         <v>0.008298802814695083</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.0334821382575754</v>
       </c>
     </row>
     <row r="114">
@@ -2704,10 +4060,22 @@
         <v>0.005025136202672975</v>
       </c>
       <c r="E114" t="n">
+        <v>-0.04445176257083361</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.005698021114637797</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.03410561248651067</v>
+      </c>
+      <c r="H114" t="n">
         <v>-0.03807194794940783</v>
       </c>
-      <c r="F114" t="n">
+      <c r="I114" t="n">
         <v>0.008230499136515412</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02770684473716223</v>
       </c>
     </row>
     <row r="115">
@@ -2724,10 +4092,22 @@
         <v>-0.00250941160542606</v>
       </c>
       <c r="E115" t="n">
+        <v>-0.05608946665104364</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.02882043853549199</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.02193507686625562</v>
+      </c>
+      <c r="H115" t="n">
         <v>-0.00298953884836628</v>
       </c>
-      <c r="F115" t="n">
+      <c r="I115" t="n">
         <v>-0.02995232228335132</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.0115755435242928</v>
       </c>
     </row>
     <row r="116">
@@ -2744,10 +4124,22 @@
         <v>-0.0215881399736344</v>
       </c>
       <c r="E116" t="n">
+        <v>-0.03423317164224216</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.005865119452398204</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.05872528601278226</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.01780462463350707</v>
       </c>
-      <c r="F116" t="n">
+      <c r="I116" t="n">
         <v>-0.1031107959238109</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.01067350394635191</v>
       </c>
     </row>
     <row r="117">
@@ -2764,10 +4156,22 @@
         <v>-0.02337768800906259</v>
       </c>
       <c r="E117" t="n">
+        <v>-0.03544674899574796</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.02622319509910254</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.03876454345024438</v>
+      </c>
+      <c r="H117" t="n">
         <v>-0.02985296314968133</v>
       </c>
-      <c r="F117" t="n">
+      <c r="I117" t="n">
         <v>0.003738322110607317</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.02925712953147297</v>
       </c>
     </row>
     <row r="118">
@@ -2784,10 +4188,22 @@
         <v>-0.003949972219313924</v>
       </c>
       <c r="E118" t="n">
+        <v>0.00514139950041903</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.021978906718775</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.0240011520995429</v>
+      </c>
+      <c r="H118" t="n">
         <v>-0.0292103780998012</v>
       </c>
-      <c r="F118" t="n">
+      <c r="I118" t="n">
         <v>-0.03223027790491351</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.0228468043170782</v>
       </c>
     </row>
     <row r="119">
@@ -2804,10 +4220,22 @@
         <v>0.07740069821069762</v>
       </c>
       <c r="E119" t="n">
+        <v>0.01324522675002049</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.06685066089595049</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.01207258123426902</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.05906334124948254</v>
       </c>
-      <c r="F119" t="n">
+      <c r="I119" t="n">
         <v>0.067064230580546</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.05120573984115495</v>
       </c>
     </row>
     <row r="120">
@@ -2824,10 +4252,22 @@
         <v>-0.007352974305258719</v>
       </c>
       <c r="E120" t="n">
+        <v>0.03187520853044878</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.06048876148065085</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.008032171697264001</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.01749315744751723</v>
       </c>
-      <c r="F120" t="n">
+      <c r="I120" t="n">
         <v>0.005390848634876377</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.01562910337125523</v>
       </c>
     </row>
     <row r="121">
@@ -2844,10 +4284,22 @@
         <v>0.002457003693051796</v>
       </c>
       <c r="E121" t="n">
+        <v>0.1199593150789791</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.02420360174088643</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.02390552085355413</v>
+      </c>
+      <c r="H121" t="n">
         <v>-0.03081681864598806</v>
       </c>
-      <c r="F121" t="n">
+      <c r="I121" t="n">
         <v>0.02127739844728493</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.003002305337684419</v>
       </c>
     </row>
     <row r="122">
@@ -2864,10 +4316,22 @@
         <v>0.002450981619140258</v>
       </c>
       <c r="E122" t="n">
+        <v>-0.2220571851019888</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.03975537721877132</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.003929278139889636</v>
+      </c>
+      <c r="H122" t="n">
         <v>-0.0241339013364299</v>
       </c>
-      <c r="F122" t="n">
+      <c r="I122" t="n">
         <v>-0.03571808260207909</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.007166878682616229</v>
       </c>
     </row>
     <row r="123">
@@ -2884,10 +4348,22 @@
         <v>-0.02102736719207554</v>
       </c>
       <c r="E123" t="n">
+        <v>-0.1610510159048992</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.05111035082512938</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.02985296314968089</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.01515180502060254</v>
       </c>
-      <c r="F123" t="n">
+      <c r="I123" t="n">
         <v>-0.07747026167599413</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.009552228024180209</v>
       </c>
     </row>
     <row r="124">
@@ -2904,10 +4380,22 @@
         <v>-0.008788506033079457</v>
       </c>
       <c r="E124" t="n">
+        <v>0.09135990163384777</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.01474228173720338</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.01603240753104851</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.04124295853404902</v>
       </c>
-      <c r="F124" t="n">
+      <c r="I124" t="n">
         <v>0.01365874893104024</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.01477157782941241</v>
       </c>
     </row>
     <row r="125">
@@ -2924,10 +4412,22 @@
         <v>-0.01909669745645637</v>
       </c>
       <c r="E125" t="n">
+        <v>-0.2849694182016536</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.00745345065458114</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.06149478160780619</v>
+      </c>
+      <c r="H125" t="n">
         <v>-0.02188271124950791</v>
       </c>
-      <c r="F125" t="n">
+      <c r="I125" t="n">
         <v>-0.03550668845690996</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.002607679415017827</v>
       </c>
     </row>
     <row r="126">
@@ -2944,10 +4444,22 @@
         <v>0.008957193604016922</v>
       </c>
       <c r="E126" t="n">
+        <v>-0.02349364124138864</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.00374766210023969</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.01705798290457627</v>
+      </c>
+      <c r="H126" t="n">
         <v>-0.04063764573182649</v>
       </c>
-      <c r="F126" t="n">
+      <c r="I126" t="n">
         <v>0.06227692952151465</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.01287160814666954</v>
       </c>
     </row>
     <row r="127">
@@ -2964,10 +4476,22 @@
         <v>0.01391546806197441</v>
       </c>
       <c r="E127" t="n">
+        <v>-0.009554212804811613</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.001252348316465923</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.010695289116748</v>
+      </c>
+      <c r="H127" t="n">
         <v>-0.00461894585629441</v>
       </c>
-      <c r="F127" t="n">
+      <c r="I127" t="n">
         <v>-0.03455238150665974</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.02889882804413446</v>
       </c>
     </row>
     <row r="128">
@@ -2984,10 +4508,22 @@
         <v>0.0284848980086867</v>
       </c>
       <c r="E128" t="n">
+        <v>0.009554212804811613</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.01739174271186927</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.01058210933053694</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.01683283815023273</v>
       </c>
-      <c r="F128" t="n">
+      <c r="I128" t="n">
         <v>-0.01178795575204239</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0.01000433083520313</v>
       </c>
     </row>
     <row r="129">
@@ -3004,10 +4540,22 @@
         <v>-0.006123717850528898</v>
       </c>
       <c r="E129" t="n">
+        <v>0.01416231381250443</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.003687773079184886</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.03516391245766659</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.03136926366764525</v>
       </c>
-      <c r="F129" t="n">
+      <c r="I129" t="n">
         <v>0.005911347263057198</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.008895456105157962</v>
       </c>
     </row>
     <row r="130">
@@ -3024,10 +4572,22 @@
         <v>0.01099583467452936</v>
       </c>
       <c r="E130" t="n">
+        <v>0.01704146585485167</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.008552281815317198</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0591888713903308</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.05715841383994835</v>
       </c>
-      <c r="F130" t="n">
+      <c r="I130" t="n">
         <v>0.04042898999564493</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.01372002488026602</v>
       </c>
     </row>
     <row r="131">
@@ -3044,10 +4604,22 @@
         <v>-0.006093864074323108</v>
       </c>
       <c r="E131" t="n">
+        <v>0.004597709248629345</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.02047031141102629</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.00383877630716567</v>
+      </c>
+      <c r="H131" t="n">
         <v>-0.03533936644530877</v>
       </c>
-      <c r="F131" t="n">
+      <c r="I131" t="n">
         <v>-0.04042898999564493</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0.02108621123464793</v>
       </c>
     </row>
     <row r="132">
@@ -3064,10 +4636,22 @@
         <v>-0.009828088936262525</v>
       </c>
       <c r="E132" t="n">
+        <v>0.007616183045308533</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.01682732013252553</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.005752652489449783</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.002873565195731675</v>
       </c>
-      <c r="F132" t="n">
+      <c r="I132" t="n">
         <v>-0.03193884250783263</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.00954832499580327</v>
       </c>
     </row>
     <row r="133">
@@ -3084,10 +4668,22 @@
         <v>0.01104983618658517</v>
       </c>
       <c r="E133" t="n">
+        <v>-0.02613523081254598</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0251359732715426</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.05099143796829431</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.05172361785399193</v>
       </c>
-      <c r="F133" t="n">
+      <c r="I133" t="n">
         <v>-0.0122450509601002</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.01043708723310921</v>
       </c>
     </row>
     <row r="134">
@@ -3104,10 +4700,22 @@
         <v>0.02293401662901351</v>
       </c>
       <c r="E134" t="n">
+        <v>0.06483053457226395</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.03598763276595962</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.02385799045389403</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.01353200621857642</v>
       </c>
-      <c r="F134" t="n">
+      <c r="I134" t="n">
         <v>0.0203259030140388</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.004317896268096533</v>
       </c>
     </row>
     <row r="135">
@@ -3124,10 +4732,22 @@
         <v>-0.03893435797545486</v>
       </c>
       <c r="E135" t="n">
+        <v>-0.05244647537254243</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.06720265211388421</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.06493152566218141</v>
+      </c>
+      <c r="H135" t="n">
         <v>-0.05526267867504986</v>
       </c>
-      <c r="F135" t="n">
+      <c r="I135" t="n">
         <v>-0.01827462024348137</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.04793090662718846</v>
       </c>
     </row>
     <row r="136">
@@ -3144,10 +4764,22 @@
         <v>0.00864736704118263</v>
       </c>
       <c r="E136" t="n">
+        <v>0.02731581064696287</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.004866189651172803</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.01478379618423675</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.03352269203864378</v>
       </c>
-      <c r="F136" t="n">
+      <c r="I136" t="n">
         <v>-0.1126731625041129</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.01204520911844398</v>
       </c>
     </row>
     <row r="137">
@@ -3164,10 +4796,22 @@
         <v>-0.01987643075759582</v>
       </c>
       <c r="E137" t="n">
+        <v>-0.0553987793897881</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.02581581596270999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.03023988518971832</v>
+      </c>
+      <c r="H137" t="n">
         <v>-0.09654720834500008</v>
       </c>
-      <c r="F137" t="n">
+      <c r="I137" t="n">
         <v>-0.006904515346544571</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0003486532724785718</v>
       </c>
     </row>
     <row r="138">
@@ -3184,10 +4828,22 @@
         <v>0.03815847559504482</v>
       </c>
       <c r="E138" t="n">
+        <v>0.007880261425305957</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.02777956410707549</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.06165608142309686</v>
+      </c>
+      <c r="H138" t="n">
         <v>-0.04012884095899416</v>
       </c>
-      <c r="F138" t="n">
+      <c r="I138" t="n">
         <v>0.004608303086194088</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.007966393735323152</v>
       </c>
     </row>
     <row r="139">
@@ -3204,10 +4860,22 @@
         <v>-0.01092907053219028</v>
       </c>
       <c r="E139" t="n">
+        <v>0.06090161734011157</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.05480823649499467</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.03045920748470854</v>
+      </c>
+      <c r="H139" t="n">
         <v>-0.04509620783319335</v>
       </c>
-      <c r="F139" t="n">
+      <c r="I139" t="n">
         <v>0.02272825107755638</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.008287415955171795</v>
       </c>
     </row>
     <row r="140">
@@ -3224,10 +4892,22 @@
         <v>-0.04112729142386318</v>
       </c>
       <c r="E140" t="n">
+        <v>-0.2205619529783396</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.160026494524016</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-0.06827884075329438</v>
+      </c>
+      <c r="H140" t="n">
         <v>-0.01828812399414881</v>
       </c>
-      <c r="F140" t="n">
+      <c r="I140" t="n">
         <v>-0.06498806036743865</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.06044905722345106</v>
       </c>
     </row>
     <row r="141">
@@ -3244,10 +4924,22 @@
         <v>-0.01280427224598757</v>
       </c>
       <c r="E141" t="n">
+        <v>-0.003690041087453855</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.01971894878895553</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.03575564904773465</v>
+      </c>
+      <c r="H141" t="n">
         <v>-0.02721256352488455</v>
       </c>
-      <c r="F141" t="n">
+      <c r="I141" t="n">
         <v>0.03533936644530877</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02384330212768226</v>
       </c>
     </row>
     <row r="142">
@@ -3264,10 +4956,22 @@
         <v>-0.03008729238332508</v>
       </c>
       <c r="E142" t="n">
+        <v>0.01649899938003507</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.006949298293205786</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.0443578526303976</v>
+      </c>
+      <c r="H142" t="n">
         <v>-0.03509131981127034</v>
       </c>
-      <c r="F142" t="n">
+      <c r="I142" t="n">
         <v>-0.02105340919783272</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.04235153858129337</v>
       </c>
     </row>
     <row r="143">
@@ -3284,10 +4988,22 @@
         <v>-0.03513875026637425</v>
       </c>
       <c r="E143" t="n">
+        <v>-0.08338160893905111</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.1004480096163951</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.05550814370978818</v>
+      </c>
+      <c r="H143" t="n">
         <v>-0.04941535956335041</v>
       </c>
-      <c r="F143" t="n">
+      <c r="I143" t="n">
         <v>-0.091534809581447</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.04985382422181139</v>
       </c>
     </row>
     <row r="144">
@@ -3304,10 +5020,22 @@
         <v>-0.03072867472125074</v>
       </c>
       <c r="E144" t="n">
+        <v>0.02343857297201746</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.04051566889372138</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.02543489714782154</v>
+      </c>
+      <c r="H144" t="n">
         <v>-0.02854618190636149</v>
       </c>
-      <c r="F144" t="n">
+      <c r="I144" t="n">
         <v>-0.005194816877103658</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.003645185068696932</v>
       </c>
     </row>
     <row r="145">
@@ -3324,10 +5052,22 @@
         <v>-0.06595796779179741</v>
       </c>
       <c r="E145" t="n">
+        <v>-0.03137512256775388</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.1694634018505861</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-0.09577867360535119</v>
+      </c>
+      <c r="H145" t="n">
         <v>-0.07827464484856783</v>
       </c>
-      <c r="F145" t="n">
+      <c r="I145" t="n">
         <v>-0.1042037775300027</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.04911246847837702</v>
       </c>
     </row>
     <row r="146">
@@ -3344,10 +5084,22 @@
         <v>0.09116938713829326</v>
       </c>
       <c r="E146" t="n">
+        <v>0.1235212990294221</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.2376716518771196</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.1074202486208371</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.08212821416455807</v>
       </c>
-      <c r="F146" t="n">
+      <c r="I146" t="n">
         <v>0.05892307299684596</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.09248769156052639</v>
       </c>
     </row>
     <row r="147">
@@ -3364,10 +5116,22 @@
         <v>0.08099979819164327</v>
       </c>
       <c r="E147" t="n">
+        <v>0.1814408874283611</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.1067331994697986</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.1815496540153725</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.1694181519580469</v>
       </c>
-      <c r="F147" t="n">
+      <c r="I147" t="n">
         <v>0.1927124341116699</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.1113411917997684</v>
       </c>
     </row>
     <row r="148">
@@ -3384,10 +5148,22 @@
         <v>0.0338590337650051</v>
       </c>
       <c r="E148" t="n">
+        <v>0.01746769304039097</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.007380107297622285</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.01722530628187968</v>
+      </c>
+      <c r="H148" t="n">
         <v>-0.02465202899831231</v>
       </c>
-      <c r="F148" t="n">
+      <c r="I148" t="n">
         <v>-0.00450451212110492</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.002621388802241498</v>
       </c>
     </row>
     <row r="149">
@@ -3404,10 +5180,22 @@
         <v>0.02195210101988199</v>
       </c>
       <c r="E149" t="n">
+        <v>0.02282552734222421</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.05600033611932131</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.02990877139257275</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.02951033814938819</v>
       </c>
-      <c r="F149" t="n">
+      <c r="I149" t="n">
         <v>0.02011240978709594</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03431192886765722</v>
       </c>
     </row>
     <row r="150">
@@ -3424,10 +5212,22 @@
         <v>-0.04439693350044704</v>
       </c>
       <c r="E150" t="n">
+        <v>-0.07465059520681017</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.01753405529152507</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-0.005540180375615211</v>
+      </c>
+      <c r="H150" t="n">
         <v>-0.02287681465375435</v>
       </c>
-      <c r="F150" t="n">
+      <c r="I150" t="n">
         <v>-0.01560789766599102</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.01100766155242106</v>
       </c>
     </row>
     <row r="151">
@@ -3444,10 +5244,22 @@
         <v>0.02613714436769277</v>
       </c>
       <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.01904819497069443</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-0.0224728558520586</v>
+      </c>
+      <c r="H151" t="n">
         <v>-0.07729167430164674</v>
       </c>
-      <c r="F151" t="n">
+      <c r="I151" t="n">
         <v>0.04181027006001514</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.01732035644911534</v>
       </c>
     </row>
     <row r="152">
@@ -3464,10 +5276,22 @@
         <v>-0.04523384182414913</v>
       </c>
       <c r="E152" t="n">
+        <v>0.02846634158695771</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.03672383295469439</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.03168951095698258</v>
+      </c>
+      <c r="H152" t="n">
         <v>-0.001787310574095535</v>
       </c>
-      <c r="F152" t="n">
+      <c r="I152" t="n">
         <v>0.0422003544903764</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.01018794154316716</v>
       </c>
     </row>
     <row r="153">
@@ -3484,10 +5308,22 @@
         <v>0.01783486763603426</v>
       </c>
       <c r="E153" t="n">
+        <v>0.05879829613594922</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1130614604356852</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.07082605256861241</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.05397306374466604</v>
       </c>
-      <c r="F153" t="n">
+      <c r="I153" t="n">
         <v>0.08321630602107799</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.05282968172108582</v>
       </c>
     </row>
     <row r="154">
@@ -3504,10 +5340,22 @@
         <v>-0.003795070968551251</v>
       </c>
       <c r="E154" t="n">
+        <v>0.009702085806450489</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.001112966169420915</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.001710864403629664</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.003384097984240331</v>
       </c>
-      <c r="F154" t="n">
+      <c r="I154" t="n">
         <v>-0.005719748672786906</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-0.002347888227982153</v>
       </c>
     </row>
     <row r="155">
@@ -3524,10 +5372,22 @@
         <v>-0.001268230987995445</v>
       </c>
       <c r="E155" t="n">
+        <v>-0.002762432695909922</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.006651909228305719</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-0.001713796477734508</v>
+      </c>
+      <c r="H155" t="n">
         <v>-0.003384097984240331</v>
       </c>
-      <c r="F155" t="n">
+      <c r="I155" t="n">
         <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-0.00544394156581518</v>
       </c>
     </row>
     <row r="156">
@@ -3544,10 +5404,22 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
+        <v>0.0123712918025467</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.001104362343053111</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.02205348071485735</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.03497442227183001</v>
       </c>
-      <c r="F156" t="n">
+      <c r="I156" t="n">
         <v>-0.01153858955649367</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.007108355240237785</v>
       </c>
     </row>
     <row r="157">
@@ -3564,10 +5436,22 @@
         <v>-0.005089069507471233</v>
       </c>
       <c r="E157" t="n">
+        <v>-0.01514137667636239</v>
+      </c>
+      <c r="F157" t="n">
         <v>0</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
+        <v>-0.001679261519719866</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0.003861008657459308</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.009398776730604297</v>
       </c>
     </row>
     <row r="158">
@@ -3584,10 +5468,22 @@
         <v>-0.008968669982760247</v>
       </c>
       <c r="E158" t="n">
+        <v>-0.001387925274848101</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.006600684031352166</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.005029348405001688</v>
+      </c>
+      <c r="H158" t="n">
         <v>-0.01152276123678053</v>
       </c>
-      <c r="F158" t="n">
+      <c r="I158" t="n">
         <v>-0.001928640906405654</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.007841881578418253</v>
       </c>
     </row>
     <row r="159">
@@ -3604,10 +5500,22 @@
         <v>0.00257069550310085</v>
       </c>
       <c r="E159" t="n">
+        <v>0.004158010148663793</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.006600684031352166</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.003338901265514949</v>
+      </c>
+      <c r="H159" t="n">
         <v>-0.009983443984183271</v>
       </c>
-      <c r="F159" t="n">
+      <c r="I159" t="n">
         <v>0.001928640906405654</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.01101934714035124</v>
       </c>
     </row>
     <row r="160">
@@ -3624,10 +5532,22 @@
         <v>-0.007731997283326297</v>
       </c>
       <c r="E160" t="n">
+        <v>0.00414079266603129</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.001103144072157392</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.01342302033214082</v>
+      </c>
+      <c r="H160" t="n">
         <v>-0.001673640558029543</v>
       </c>
-      <c r="F160" t="n">
+      <c r="I160" t="n">
         <v>0.005763704716750251</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.002624881095476539</v>
       </c>
     </row>
     <row r="161">
@@ -3644,10 +5564,22 @@
         <v>0.01157569195788888</v>
       </c>
       <c r="E161" t="n">
+        <v>0.004123717183862174</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.00663719250679895</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.01342302033214082</v>
+      </c>
+      <c r="H161" t="n">
         <v>-0.02030526616074546</v>
       </c>
-      <c r="F161" t="n">
+      <c r="I161" t="n">
         <v>0.07383426201105214</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.02703015391424302</v>
       </c>
     </row>
     <row r="162">
@@ -3664,10 +5596,22 @@
         <v>-0.007702220362092227</v>
       </c>
       <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.02531780798428995</v>
       </c>
-      <c r="F162" t="n">
+      <c r="I162" t="n">
         <v>0.02807201877868648</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.01039612016356095</v>
       </c>
     </row>
     <row r="163">
@@ -3684,10 +5628,22 @@
         <v>0.005141399500418586</v>
       </c>
       <c r="E163" t="n">
+        <v>-0.03347592919638953</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.004429686091588447</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.01680711831638115</v>
+      </c>
+      <c r="H163" t="n">
         <v>-0.006688988150796771</v>
       </c>
-      <c r="F163" t="n">
+      <c r="I163" t="n">
         <v>-0.1941560144409573</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.006699258282234055</v>
       </c>
     </row>
     <row r="164">
@@ -3704,10 +5660,22 @@
         <v>0.00128123015604853</v>
       </c>
       <c r="E164" t="n">
+        <v>0.02382733608055743</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.001105583307749569</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.005071862097960178</v>
+      </c>
+      <c r="H164" t="n">
         <v>-0.001679261519719866</v>
       </c>
-      <c r="F164" t="n">
+      <c r="I164" t="n">
         <v>-0.06734357206517982</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.003568277330659342</v>
       </c>
     </row>
     <row r="165">
@@ -3724,10 +5692,22 @@
         <v>-0.00256410396893747</v>
       </c>
       <c r="E165" t="n">
+        <v>0.04336722911513013</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.001105583307749569</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.02498048296844146</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.08378488895527081</v>
       </c>
-      <c r="F165" t="n">
+      <c r="I165" t="n">
         <v>-0.05544144848385901</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.004669099429232659</v>
       </c>
     </row>
     <row r="166">
@@ -3744,10 +5724,22 @@
         <v>-0.02206449018410206</v>
       </c>
       <c r="E166" t="n">
+        <v>0.006609409387673626</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.002207506415210503</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.02917548913393153</v>
+      </c>
+      <c r="H166" t="n">
         <v>-0.01244184012336591</v>
       </c>
-      <c r="F166" t="n">
+      <c r="I166" t="n">
         <v>0.00710062154957658</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.01566762121398391</v>
       </c>
     </row>
     <row r="167">
@@ -3764,10 +5756,22 @@
         <v>-0.02659731251926578</v>
       </c>
       <c r="E167" t="n">
+        <v>0.01308919211001403</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.006593430479831852</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.01741928447206487</v>
+      </c>
+      <c r="H167" t="n">
         <v>-0.1055344135801843</v>
       </c>
-      <c r="F167" t="n">
+      <c r="I167" t="n">
         <v>-0.01664723343315622</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.009112822556451405</v>
       </c>
     </row>
     <row r="168">
@@ -3784,10 +5788,22 @@
         <v>-0.01630470902494352</v>
       </c>
       <c r="E168" t="n">
+        <v>-0.006523180339123691</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.006550241760718389</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-0.004720701134937499</v>
+      </c>
+      <c r="H168" t="n">
         <v>-0.02286819090365944</v>
       </c>
-      <c r="F168" t="n">
+      <c r="I168" t="n">
         <v>-0.009638628837768781</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.01031315839415647</v>
       </c>
     </row>
     <row r="169">
@@ -3804,10 +5820,22 @@
         <v>-0.006872879287762146</v>
       </c>
       <c r="E169" t="n">
+        <v>-0.02116481119204305</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.01424681631270763</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.006329135051647672</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.005323881252750073</v>
       </c>
-      <c r="F169" t="n">
+      <c r="I169" t="n">
         <v>0.02392458608524484</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.02630488168622591</v>
       </c>
     </row>
     <row r="170">
@@ -3824,10 +5852,22 @@
         <v>0.009608859106636558</v>
       </c>
       <c r="E170" t="n">
+        <v>0.02638675517319511</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.001103144072157392</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.003169574761279215</v>
+      </c>
+      <c r="H170" t="n">
         <v>-0.00177147964838209</v>
       </c>
-      <c r="F170" t="n">
+      <c r="I170" t="n">
         <v>0.007067167223092863</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0004149750982698208</v>
       </c>
     </row>
     <row r="171">
@@ -3844,10 +5884,22 @@
         <v>-0.005479465764625324</v>
       </c>
       <c r="E171" t="n">
+        <v>0.0155041865359653</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.001101928486156645</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.01257878220686015</v>
+      </c>
+      <c r="H171" t="n">
         <v>-0.04163497265157723</v>
       </c>
-      <c r="F171" t="n">
+      <c r="I171" t="n">
         <v>-0.007067167223092863</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.005965725918541054</v>
       </c>
     </row>
     <row r="172">
@@ -3864,10 +5916,22 @@
         <v>0.01499687275151596</v>
       </c>
       <c r="E172" t="n">
+        <v>0.0127390257774298</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.01421565765401356</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.01857638557293528</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.02734901540410073</v>
       </c>
-      <c r="F172" t="n">
+      <c r="I172" t="n">
         <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.009192426457378389</v>
       </c>
     </row>
     <row r="173">
@@ -3884,10 +5948,22 @@
         <v>0.01210505702627529</v>
       </c>
       <c r="E173" t="n">
+        <v>0.01507566240544689</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.03021377859649688</v>
+      </c>
+      <c r="H173" t="n">
         <v>0.07616136096556403</v>
       </c>
-      <c r="F173" t="n">
+      <c r="I173" t="n">
         <v>0.004716989878139177</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0.009389127513504292</v>
       </c>
     </row>
     <row r="174">
@@ -3904,10 +5980,22 @@
         <v>-0.005361943141385161</v>
       </c>
       <c r="E174" t="n">
+        <v>0.001246106080247333</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.002169198247545356</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.03796076223922284</v>
+      </c>
+      <c r="H174" t="n">
         <v>-0.07976496846886283</v>
       </c>
-      <c r="F174" t="n">
+      <c r="I174" t="n">
         <v>-0.01660773639966084</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0.004341879046346975</v>
       </c>
     </row>
     <row r="175">
@@ -3924,10 +6012,22 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
+        <v>-0.008755528102378562</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.001082837138831838</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.02465679661286035</v>
+      </c>
+      <c r="H175" t="n">
         <v>-0.02374540790080193</v>
       </c>
-      <c r="F175" t="n">
+      <c r="I175" t="n">
         <v>0.1108478251441412</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.01519654978566187</v>
       </c>
     </row>
     <row r="176">
@@ -3944,10 +6044,22 @@
         <v>-0.01489533294644074</v>
       </c>
       <c r="E176" t="n">
+        <v>0.002509411605425615</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.004338401598598107</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-0.03892707051426036</v>
+      </c>
+      <c r="H176" t="n">
         <v>-0.003703707937484424</v>
       </c>
-      <c r="F176" t="n">
+      <c r="I176" t="n">
         <v>0.01698554636574423</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0.007557172989159255</v>
       </c>
     </row>
     <row r="177">
@@ -3964,10 +6076,22 @@
         <v>-0.008219224353132049</v>
       </c>
       <c r="E177" t="n">
+        <v>0.01492565021667591</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.01617285924560097</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.05495071998241796</v>
+      </c>
+      <c r="H177" t="n">
         <v>-0.0474923054538321</v>
       </c>
-      <c r="F177" t="n">
+      <c r="I177" t="n">
         <v>-0.07881539095947021</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0.01118576480026157</v>
       </c>
     </row>
     <row r="178">
@@ -3984,10 +6108,22 @@
         <v>0.001374570663166708</v>
       </c>
       <c r="E178" t="n">
+        <v>0.04230237969068895</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-0.0129172947858347</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-0.03081681864598806</v>
+      </c>
+      <c r="H178" t="n">
         <v>-0.1001858598678087</v>
       </c>
-      <c r="F178" t="n">
+      <c r="I178" t="n">
         <v>0.009070356969964166</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.007037912177285222</v>
       </c>
     </row>
     <row r="179">
@@ -4004,10 +6140,22 @@
         <v>-0.004129393342011234</v>
       </c>
       <c r="E179" t="n">
+        <v>0.003544008434729573</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.004324331063002784</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.03944996579069082</v>
+      </c>
+      <c r="H179" t="n">
         <v>0.01282068842906137</v>
       </c>
-      <c r="F179" t="n">
+      <c r="I179" t="n">
         <v>0.01345311769711888</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.00518450299809281</v>
       </c>
     </row>
     <row r="180">
@@ -4024,10 +6172,22 @@
         <v>0.005502077153983542</v>
       </c>
       <c r="E180" t="n">
+        <v>0.05282513938161104</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.02450841902873169</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.06918387521210478</v>
+      </c>
+      <c r="H180" t="n">
         <v>0.0189280098855189</v>
       </c>
-      <c r="F180" t="n">
+      <c r="I180" t="n">
         <v>-0.0908657280439007</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03199187807867254</v>
       </c>
     </row>
     <row r="181">
@@ -4044,10 +6204,22 @@
         <v>0.001370802133778604</v>
       </c>
       <c r="E181" t="n">
+        <v>0.01663931900396465</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.03516391245766659</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.00267022855587884</v>
+      </c>
+      <c r="H181" t="n">
         <v>-0.01680711831638115</v>
       </c>
-      <c r="F181" t="n">
+      <c r="I181" t="n">
         <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0.001726612258764249</v>
       </c>
     </row>
     <row r="182">
@@ -4064,10 +6236,22 @@
         <v>0.02969178980740272</v>
       </c>
       <c r="E182" t="n">
+        <v>-0.04385188252884964</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.003044142381228188</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.1278333715098849</v>
+      </c>
+      <c r="H182" t="n">
         <v>-0.0085106896679088</v>
       </c>
-      <c r="F182" t="n">
+      <c r="I182" t="n">
         <v>0.03121501934792414</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-0.004501900444667584</v>
       </c>
     </row>
     <row r="183">
@@ -4084,10 +6268,22 @@
         <v>0.01058210933053694</v>
       </c>
       <c r="E183" t="n">
+        <v>-0.02208108307525514</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.04300143599318762</v>
+      </c>
+      <c r="H183" t="n">
         <v>-0.01724180643450612</v>
       </c>
-      <c r="F183" t="n">
+      <c r="I183" t="n">
         <v>-0.05092009042725643</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0.003574261744086371</v>
       </c>
     </row>
     <row r="184">
@@ -4104,10 +6300,22 @@
         <v>-0.02802051233217462</v>
       </c>
       <c r="E184" t="n">
+        <v>-0.04199777360926715</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.003044142381228188</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-0.03846628082779624</v>
+      </c>
+      <c r="H184" t="n">
         <v>-0.01754430965090936</v>
       </c>
-      <c r="F184" t="n">
+      <c r="I184" t="n">
         <v>0.007434978487518062</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0.005103057285960944</v>
       </c>
     </row>
     <row r="185">
@@ -4124,10 +6332,22 @@
         <v>0.01210505702627529</v>
       </c>
       <c r="E185" t="n">
+        <v>-0.001226241723244037</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.04568818417142806</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-0.04472603574863676</v>
+      </c>
+      <c r="H185" t="n">
         <v>-0.004434597067866086</v>
       </c>
-      <c r="F185" t="n">
+      <c r="I185" t="n">
         <v>0.002466092495193362</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.006774240425782452</v>
       </c>
     </row>
     <row r="186">
@@ -4144,10 +6364,22 @@
         <v>-0.03815176596437642</v>
       </c>
       <c r="E186" t="n">
+        <v>-0.007389196182371105</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.06001800972625304</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.01910886169804638</v>
+      </c>
+      <c r="H186" t="n">
         <v>0.008849615276982803</v>
       </c>
-      <c r="F186" t="n">
+      <c r="I186" t="n">
         <v>-0.007416597655049983</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.02617312213440748</v>
       </c>
     </row>
     <row r="187">
@@ -4164,10 +6396,22 @@
         <v>-0.005571045049455492</v>
       </c>
       <c r="E187" t="n">
+        <v>-0.01494423826827651</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.009235571033082035</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.01910886169804638</v>
+      </c>
+      <c r="H187" t="n">
         <v>-0.008849615276982803</v>
       </c>
-      <c r="F187" t="n">
+      <c r="I187" t="n">
         <v>0.02692941187863163</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0.01103199466730942</v>
       </c>
     </row>
     <row r="188">
@@ -4184,10 +6428,22 @@
         <v>-0.01690181080260311</v>
       </c>
       <c r="E188" t="n">
+        <v>0.01987643075759538</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.005120338887975251</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.02184174191504873</v>
+      </c>
+      <c r="H188" t="n">
         <v>0.008849615276982803</v>
       </c>
-      <c r="F188" t="n">
+      <c r="I188" t="n">
         <v>0.06090875308699273</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.008541406807736962</v>
       </c>
     </row>
     <row r="189">
@@ -4204,10 +6460,22 @@
         <v>0.01969121289018183</v>
       </c>
       <c r="E189" t="n">
+        <v>-0.01113184036884451</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.01969996316180467</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-0.02342027420809822</v>
+      </c>
+      <c r="H189" t="n">
         <v>0.002200220909602368</v>
       </c>
-      <c r="F189" t="n">
+      <c r="I189" t="n">
         <v>-0.09531017980432521</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.01634567335438852</v>
       </c>
     </row>
     <row r="190">
@@ -4224,10 +6492,22 @@
         <v>0.002781642961876774</v>
       </c>
       <c r="E190" t="n">
+        <v>-0.01000008333458302</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.0211648111920435</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-0.04855322541699092</v>
+      </c>
+      <c r="H190" t="n">
         <v>-0.0155041865359653</v>
       </c>
-      <c r="F190" t="n">
+      <c r="I190" t="n">
         <v>-0.03822121282019753</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.005390989182266992</v>
       </c>
     </row>
     <row r="191">
@@ -4244,10 +6524,22 @@
         <v>0.009675265523418464</v>
       </c>
       <c r="E191" t="n">
+        <v>0.06328144994752005</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-0.009672294642507406</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.004962789342128904</v>
+      </c>
+      <c r="H191" t="n">
         <v>0.008888947417246218</v>
       </c>
-      <c r="F191" t="n">
+      <c r="I191" t="n">
         <v>-0.05334598070529273</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03118027070867235</v>
       </c>
     </row>
     <row r="192">
@@ -4264,10 +6556,22 @@
         <v>0.005486982216258873</v>
       </c>
       <c r="E192" t="n">
+        <v>0.04834082693428243</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.05156323635166782</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.07622736538788466</v>
+      </c>
+      <c r="H192" t="n">
         <v>-0.03603993648319692</v>
       </c>
-      <c r="F192" t="n">
+      <c r="I192" t="n">
         <v>-0.03060044044871724</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03515469558241158</v>
       </c>
     </row>
     <row r="193">
@@ -4284,10 +6588,22 @@
         <v>0.006816658979098111</v>
       </c>
       <c r="E193" t="n">
+        <v>-0.01243656504100876</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.004111002706522537</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-0.03580148891598567</v>
+      </c>
+      <c r="H193" t="n">
         <v>0.01366763872866361</v>
       </c>
-      <c r="F193" t="n">
+      <c r="I193" t="n">
         <v>-0.002828856200477681</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-0.01304671781554667</v>
       </c>
     </row>
     <row r="194">
@@ -4304,10 +6620,22 @@
         <v>0.001357773460460177</v>
       </c>
       <c r="E194" t="n">
+        <v>0.01131233782872787</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.002057613894680177</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-0.02731093439407095</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.01571300566455625</v>
       </c>
-      <c r="F194" t="n">
+      <c r="I194" t="n">
         <v>0.002828856200477681</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.001462526782102458</v>
       </c>
     </row>
     <row r="195">
@@ -4324,10 +6652,22 @@
         <v>0.006761350978043978</v>
       </c>
       <c r="E195" t="n">
+        <v>-0.01816167967430227</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.01631024943670711</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-0.02306527293099592</v>
+      </c>
+      <c r="H195" t="n">
         <v>-0.02024816082994718</v>
       </c>
-      <c r="F195" t="n">
+      <c r="I195" t="n">
         <v>-0.005665737535677007</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0.01499077388654868</v>
       </c>
     </row>
     <row r="196">
@@ -4344,10 +6684,22 @@
         <v>0.006715941965437011</v>
       </c>
       <c r="E196" t="n">
+        <v>-0.01036278703554672</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.002020202707275764</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-0.003338901265514949</v>
+      </c>
+      <c r="H196" t="n">
         <v>-0.002275313837135862</v>
       </c>
-      <c r="F196" t="n">
+      <c r="I196" t="n">
         <v>0.005665737535677007</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.009383750993936957</v>
       </c>
     </row>
     <row r="197">
@@ -4364,10 +6716,22 @@
         <v>-0.01347729294348099</v>
       </c>
       <c r="E197" t="n">
+        <v>0.001156738127823687</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-0.005058179727352563</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-0.00671143458798662</v>
+      </c>
+      <c r="H197" t="n">
         <v>0.01132514935705364</v>
       </c>
-      <c r="F197" t="n">
+      <c r="I197" t="n">
         <v>0.005633817718256218</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-0.005934780005388163</v>
       </c>
     </row>
     <row r="198">
@@ -4384,10 +6748,22 @@
         <v>0.008108152528422785</v>
       </c>
       <c r="E198" t="n">
+        <v>0.0217275557057639</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.001013684830846184</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-0.01185449953454842</v>
+      </c>
+      <c r="H198" t="n">
         <v>0.002249719734015443</v>
       </c>
-      <c r="F198" t="n">
+      <c r="I198" t="n">
         <v>0.05731445659598045</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.0001851494193996217</v>
       </c>
     </row>
     <row r="199">
@@ -4404,10 +6780,22 @@
         <v>0.01336918308213431</v>
       </c>
       <c r="E199" t="n">
+        <v>-0.004535155165390936</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-0.01223256843563414</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.02190483538804999</v>
+      </c>
+      <c r="H199" t="n">
         <v>0.01560789766599102</v>
       </c>
-      <c r="F199" t="n">
+      <c r="I199" t="n">
         <v>-0.005319161477600254</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.01896129120853018</v>
       </c>
     </row>
     <row r="200">
@@ -4424,10 +6812,22 @@
         <v>-0.001328903850053909</v>
       </c>
       <c r="E200" t="n">
+        <v>0.01801850550267803</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.02531780798428995</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-0.006688988150796771</v>
+      </c>
+      <c r="H200" t="n">
         <v>-0.01112358521866241</v>
       </c>
-      <c r="F200" t="n">
+      <c r="I200" t="n">
         <v>-0.02156417791584042</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0.01909927942241474</v>
       </c>
     </row>
     <row r="201">
@@ -4444,10 +6844,22 @@
         <v>0.009265453445790328</v>
       </c>
       <c r="E201" t="n">
+        <v>0.02968882152792185</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.0148886124937504</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-0.001679261519719866</v>
+      </c>
+      <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="F201" t="n">
+      <c r="I201" t="n">
         <v>0.01353200621857642</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01429141396848088</v>
       </c>
     </row>
     <row r="202">
@@ -4464,10 +6876,22 @@
         <v>-0.02130573267787073</v>
       </c>
       <c r="E202" t="n">
+        <v>-0.03080551622799677</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.00493828164058252</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.001679261519719866</v>
+      </c>
+      <c r="H202" t="n">
         <v>0.01993421490081726</v>
       </c>
-      <c r="F202" t="n">
+      <c r="I202" t="n">
         <v>-0.005390848634876821</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.006397251647612734</v>
       </c>
     </row>
     <row r="203">
@@ -4484,10 +6908,22 @@
         <v>-0.009465925988882962</v>
       </c>
       <c r="E203" t="n">
+        <v>-0.01463166226806401</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-0.03587062626799931</v>
+      </c>
+      <c r="H203" t="n">
         <v>-0.02441852734814587</v>
       </c>
-      <c r="F203" t="n">
+      <c r="I203" t="n">
         <v>0.01075279177626198</v>
+      </c>
+      <c r="J203" t="n">
+        <v>-0.02532446483888506</v>
       </c>
     </row>
     <row r="204">
@@ -4504,10 +6940,22 @@
         <v>0.01750886478834301</v>
       </c>
       <c r="E204" t="n">
+        <v>0.01351371916672273</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.04359043607486157</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.07211841666034013</v>
+      </c>
+      <c r="H204" t="n">
         <v>-0.03196619206249229</v>
       </c>
-      <c r="F204" t="n">
+      <c r="I204" t="n">
         <v>-0.01345915337400472</v>
+      </c>
+      <c r="J204" t="n">
+        <v>-0.01325415561561805</v>
       </c>
     </row>
     <row r="205">
@@ -4524,10 +6972,22 @@
         <v>-0.01344106256901734</v>
       </c>
       <c r="E205" t="n">
+        <v>0.002234637801416195</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.01411788154578497</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.008058061329762722</v>
+      </c>
+      <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="F205" t="n">
+      <c r="I205" t="n">
         <v>-0.0246926125903717</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.003753420542834007</v>
       </c>
     </row>
     <row r="206">
@@ -4544,10 +7004,22 @@
         <v>-0.01774790612340604</v>
       </c>
       <c r="E206" t="n">
+        <v>-0.0168827870387509</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.02765153133051035</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
         <v>0.006936443996656827</v>
       </c>
-      <c r="F206" t="n">
+      <c r="I206" t="n">
         <v>0.01379332213233608</v>
+      </c>
+      <c r="J206" t="n">
+        <v>-0.01348624148057809</v>
       </c>
     </row>
     <row r="207">
@@ -4564,10 +7036,22 @@
         <v>-0.00552487593196993</v>
       </c>
       <c r="E207" t="n">
+        <v>0.006787356373399778</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-0.02765153133051035</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.001603849581974348</v>
+      </c>
+      <c r="H207" t="n">
         <v>-0.009259325412796837</v>
       </c>
-      <c r="F207" t="n">
+      <c r="I207" t="n">
         <v>-0.002743485945750912</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0.007824301250533239</v>
       </c>
     </row>
     <row r="208">
@@ -4584,10 +7068,22 @@
         <v>-0.01254371847852997</v>
       </c>
       <c r="E208" t="n">
+        <v>-0.03091259306202598</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.009302392662313697</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-0.004819286435948644</v>
+      </c>
+      <c r="H208" t="n">
         <v>-0.01877989465159624</v>
       </c>
-      <c r="F208" t="n">
+      <c r="I208" t="n">
         <v>-0.01383147914846194</v>
+      </c>
+      <c r="J208" t="n">
+        <v>-0.03938360528498919</v>
       </c>
     </row>
     <row r="209">
@@ -4604,10 +7100,22 @@
         <v>-0.004216450378935033</v>
       </c>
       <c r="E209" t="n">
+        <v>0.02298951822469908</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.01834913866819665</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.003215436853974296</v>
+      </c>
+      <c r="H209" t="n">
         <v>0.03492788105957834</v>
       </c>
-      <c r="F209" t="n">
+      <c r="I209" t="n">
         <v>0.008321823337492429</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03610035587300686</v>
       </c>
     </row>
     <row r="210">
@@ -4624,10 +7132,22 @@
         <v>0.001407459767879704</v>
       </c>
       <c r="E210" t="n">
+        <v>0.0213611269993681</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.00453515516539138</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.01117330059812494</v>
+      </c>
+      <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="F210" t="n">
+      <c r="I210" t="n">
         <v>0.01098912157559528</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.00838776501787919</v>
       </c>
     </row>
     <row r="211">
@@ -4644,10 +7164,22 @@
         <v>0.007007737157404659</v>
       </c>
       <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-0.03687053580832789</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
         <v>0.006841531816716984</v>
       </c>
-      <c r="F211" t="n">
+      <c r="I211" t="n">
         <v>0.01626052087178032</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01318225997948375</v>
       </c>
     </row>
     <row r="212">
@@ -4664,10 +7196,22 @@
         <v>-0.00419874654634933</v>
       </c>
       <c r="E212" t="n">
+        <v>-0.01118579895771576</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.01398624197473985</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-0.0160003413464409</v>
+      </c>
+      <c r="H212" t="n">
         <v>-0.002275313837135862</v>
       </c>
-      <c r="F212" t="n">
+      <c r="I212" t="n">
         <v>0.01864235080927967</v>
+      </c>
+      <c r="J212" t="n">
+        <v>-0.001359608380193222</v>
       </c>
     </row>
     <row r="213">
@@ -4684,10 +7228,22 @@
         <v>-0.02269600965377228</v>
       </c>
       <c r="E213" t="n">
+        <v>0.01673212487827191</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.01834913866819665</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-0.02283949196982293</v>
+      </c>
+      <c r="H213" t="n">
         <v>-0.01145487897476638</v>
       </c>
-      <c r="F213" t="n">
+      <c r="I213" t="n">
         <v>0.03372563470803636</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01294237439641144</v>
       </c>
     </row>
     <row r="214">
@@ -4704,10 +7260,22 @@
         <v>0.06391063395723551</v>
       </c>
       <c r="E214" t="n">
+        <v>-0.06867686579621957</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-0.0903226382932858</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-0.06652068234156205</v>
+      </c>
+      <c r="H214" t="n">
         <v>-0.01392133851860811</v>
       </c>
-      <c r="F214" t="n">
+      <c r="I214" t="n">
         <v>-0.03636764417087512</v>
+      </c>
+      <c r="J214" t="n">
+        <v>-0.022575878277733</v>
       </c>
     </row>
     <row r="215">
@@ -4724,10 +7292,22 @@
         <v>-0.004045858519543977</v>
       </c>
       <c r="E215" t="n">
+        <v>-0.004750602758597733</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.01481508578514035</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.005277057100843585</v>
+      </c>
+      <c r="H215" t="n">
         <v>0.004662013105811269</v>
       </c>
-      <c r="F215" t="n">
+      <c r="I215" t="n">
         <v>-0.0160003413464409</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01333634639238568</v>
       </c>
     </row>
     <row r="216">
@@ -4744,10 +7324,22 @@
         <v>0.01741504160167828</v>
       </c>
       <c r="E216" t="n">
+        <v>-0.01077209698191117</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-0.05542980493933047</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-0.02127739844728493</v>
+      </c>
+      <c r="H216" t="n">
         <v>0.02525966675923819</v>
       </c>
-      <c r="F216" t="n">
+      <c r="I216" t="n">
         <v>0.0446854893452997</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.003354548646587574</v>
       </c>
     </row>
     <row r="217">
@@ -4764,10 +7356,22 @@
         <v>-0.01068100942033423</v>
       </c>
       <c r="E217" t="n">
+        <v>0.01670683250172544</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-0.02731262213072316</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.04211148535012699</v>
+      </c>
+      <c r="H217" t="n">
         <v>0.006779686985378675</v>
       </c>
-      <c r="F217" t="n">
+      <c r="I217" t="n">
         <v>-0.02340809089801521</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.007760240802580753</v>
       </c>
     </row>
     <row r="218">
@@ -4784,10 +7388,22 @@
         <v>-0.008086297431357359</v>
       </c>
       <c r="E218" t="n">
+        <v>-0.01190490250631804</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-0.03798611881608638</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.01195573592014876</v>
+      </c>
+      <c r="H218" t="n">
         <v>-0.01132514935705364</v>
       </c>
-      <c r="F218" t="n">
+      <c r="I218" t="n">
         <v>-0.01058210933053649</v>
+      </c>
+      <c r="J218" t="n">
+        <v>-0.04304799011051941</v>
       </c>
     </row>
     <row r="219">
@@ -4804,10 +7420,22 @@
         <v>0.02141982830082245</v>
       </c>
       <c r="E219" t="n">
+        <v>0.04335769905812414</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.006615239118719085</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.1524514440742983</v>
+      </c>
+      <c r="H219" t="n">
         <v>0.04672707640796947</v>
       </c>
-      <c r="F219" t="n">
+      <c r="I219" t="n">
         <v>0.02105340919783227</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.04432611959549249</v>
       </c>
     </row>
     <row r="220">
@@ -4824,10 +7452,22 @@
         <v>0.02356129933839757</v>
       </c>
       <c r="E220" t="n">
+        <v>-0.1600933791912205</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-0.003302149395759013</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.04280253923476041</v>
+      </c>
+      <c r="H220" t="n">
         <v>-0.05818195538273585</v>
       </c>
-      <c r="F220" t="n">
+      <c r="I220" t="n">
         <v>-0.1100008952143288</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.0126773104086908</v>
       </c>
     </row>
     <row r="221">
@@ -4844,10 +7484,22 @@
         <v>0.01157569195788888</v>
       </c>
       <c r="E221" t="n">
+        <v>0.1286405826394144</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.03573742514891309</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-0.05158736879049286</v>
+      </c>
+      <c r="H221" t="n">
         <v>0.1048995799501955</v>
       </c>
-      <c r="F221" t="n">
+      <c r="I221" t="n">
         <v>0.04823630095948284</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.04584877342193217</v>
       </c>
     </row>
     <row r="222">
@@ -4864,10 +7516,22 @@
         <v>0.01774444529907182</v>
       </c>
       <c r="E222" t="n">
+        <v>0.03259892848242885</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-0.01608613775162437</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.01169603976319111</v>
+      </c>
+      <c r="H222" t="n">
         <v>0.01850001374392019</v>
       </c>
-      <c r="F222" t="n">
+      <c r="I222" t="n">
         <v>-0.04533354130152123</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.04546706483027485</v>
       </c>
     </row>
     <row r="223">
@@ -4884,10 +7548,22 @@
         <v>0.005012541823544492</v>
       </c>
       <c r="E223" t="n">
+        <v>-0.00114613193062274</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.007539077173166042</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.01586190430046663</v>
+      </c>
+      <c r="H223" t="n">
         <v>0.004065046248169502</v>
       </c>
-      <c r="F223" t="n">
+      <c r="I223" t="n">
         <v>-0.04445176257083405</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-0.003087530178387254</v>
       </c>
     </row>
     <row r="224">
@@ -4904,10 +7580,22 @@
         <v>-0.008788506033079457</v>
       </c>
       <c r="E224" t="n">
+        <v>0.01140263209781178</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-0.005379249119736418</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-0.01877311450792529</v>
+      </c>
+      <c r="H224" t="n">
         <v>-0.008146684567817974</v>
       </c>
-      <c r="F224" t="n">
+      <c r="I224" t="n">
         <v>-0.009132483563272231</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-0.00954836688650218</v>
       </c>
     </row>
     <row r="225">
@@ -4924,10 +7612,22 @@
         <v>-0.003790276173780693</v>
       </c>
       <c r="E225" t="n">
+        <v>-0.02525966675923819</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-0.002159828053429624</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-0.008784829555732454</v>
+      </c>
+      <c r="H225" t="n">
         <v>-0.008213598537389011</v>
       </c>
-      <c r="F225" t="n">
+      <c r="I225" t="n">
         <v>0.01517479801923516</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-0.001947951192356356</v>
       </c>
     </row>
     <row r="226">
@@ -4944,10 +7644,22 @@
         <v>0.01756632371789957</v>
       </c>
       <c r="E226" t="n">
+        <v>0.02752467339009002</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.01714940207295435</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-0.01481508578514079</v>
+      </c>
+      <c r="H226" t="n">
         <v>0.01432982555482498</v>
       </c>
-      <c r="F226" t="n">
+      <c r="I226" t="n">
         <v>-0.01517479801923516</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01980354921049887</v>
       </c>
     </row>
     <row r="227">
@@ -4964,10 +7676,22 @@
         <v>-0.00874459038875175</v>
       </c>
       <c r="E227" t="n">
+        <v>0.001130582370286071</v>
+      </c>
+      <c r="F227" t="n">
         <v>0</v>
       </c>
-      <c r="F227" t="n">
+      <c r="G227" t="n">
+        <v>0.03950769837551205</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0.003053437486890243</v>
+      </c>
+      <c r="J227" t="n">
+        <v>-0.02327967102070794</v>
       </c>
     </row>
     <row r="228">
@@ -4984,10 +7708,22 @@
         <v>0.00874459038875175</v>
       </c>
       <c r="E228" t="n">
+        <v>-0.0569590319232276</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-0.03130314951104829</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-0.007199455142854028</v>
+      </c>
+      <c r="H228" t="n">
         <v>-0.004073325387635496</v>
       </c>
-      <c r="F228" t="n">
+      <c r="I228" t="n">
         <v>-0.006116227017435971</v>
+      </c>
+      <c r="J228" t="n">
+        <v>-0.01101297577397276</v>
       </c>
     </row>
     <row r="229">
@@ -5004,10 +7740,22 @@
         <v>0.004962789342128904</v>
       </c>
       <c r="E229" t="n">
+        <v>0.08261576551659155</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.03023988518971832</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-0.005797117684326114</v>
+      </c>
+      <c r="H229" t="n">
         <v>0.03213127818279293</v>
       </c>
-      <c r="F229" t="n">
+      <c r="I229" t="n">
         <v>0.05083306579923175</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02701201019693045</v>
       </c>
     </row>
     <row r="230">
@@ -5024,10 +7772,22 @@
         <v>-0.004962789342128904</v>
       </c>
       <c r="E230" t="n">
+        <v>0.01312929144179265</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.03860677677873303</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-0.1236139559671767</v>
+      </c>
+      <c r="H230" t="n">
         <v>-0.009930568202600742</v>
       </c>
-      <c r="F230" t="n">
+      <c r="I230" t="n">
         <v>-0.008784829555732454</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.002614100072419134</v>
       </c>
     </row>
     <row r="231">
@@ -5044,10 +7804,22 @@
         <v>0.002484473327661441</v>
       </c>
       <c r="E231" t="n">
+        <v>-0.001087547687399049</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.01321829108585293</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-0.009917436657346013</v>
+      </c>
+      <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="F231" t="n">
+      <c r="I231" t="n">
         <v>0.005865119452398204</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.005736107516176148</v>
       </c>
     </row>
     <row r="232">
@@ -5064,10 +7836,22 @@
         <v>-0.00997514505681929</v>
       </c>
       <c r="E232" t="n">
+        <v>-0.005455550901536821</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-0.006079046076382433</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-0.03550668845690952</v>
+      </c>
+      <c r="H232" t="n">
         <v>0.007952328190495184</v>
       </c>
-      <c r="F232" t="n">
+      <c r="I232" t="n">
         <v>-0.02666824708216176</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-0.01305641212720055</v>
       </c>
     </row>
     <row r="233">
@@ -5084,10 +7868,22 @@
         <v>-0.01897590145900585</v>
       </c>
       <c r="E233" t="n">
+        <v>-0.01877470939535408</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-0.02053460244170768</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.001719690879526503</v>
+      </c>
+      <c r="H233" t="n">
         <v>-0.003968259175620936</v>
       </c>
-      <c r="F233" t="n">
+      <c r="I233" t="n">
         <v>0.02080312762976355</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-0.006200055187649767</v>
       </c>
     </row>
     <row r="234">
@@ -5104,10 +7900,22 @@
         <v>0.01897590145900585</v>
       </c>
       <c r="E234" t="n">
+        <v>-0.02712030621919359</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-0.0348320173334784</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-0.003442344190972779</v>
+      </c>
+      <c r="H234" t="n">
         <v>-0.03850526338310711</v>
       </c>
-      <c r="F234" t="n">
+      <c r="I234" t="n">
         <v>-0.02682724223314414</v>
+      </c>
+      <c r="J234" t="n">
+        <v>-0.02384210999864145</v>
       </c>
     </row>
     <row r="235">
@@ -5124,10 +7932,22 @@
         <v>-0.003766482795477089</v>
       </c>
       <c r="E235" t="n">
+        <v>0.03045920748470854</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.0223057575142982</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-0.02797385204240621</v>
+      </c>
+      <c r="H235" t="n">
         <v>0.04839654086184986</v>
       </c>
-      <c r="F235" t="n">
+      <c r="I235" t="n">
         <v>0.01499278458614128</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02129573499333404</v>
       </c>
     </row>
     <row r="236">
@@ -5144,10 +7964,22 @@
         <v>-0.005044146886677758</v>
       </c>
       <c r="E236" t="n">
+        <v>0.05090432986176729</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.03407660638072363</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.008826182628272061</v>
+      </c>
+      <c r="H236" t="n">
         <v>-0.001970443987298509</v>
       </c>
-      <c r="F236" t="n">
+      <c r="I236" t="n">
         <v>0.02643325706815558</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.005738831982547765</v>
       </c>
     </row>
     <row r="237">
@@ -5164,10 +7996,22 @@
         <v>-0.001265022306586872</v>
       </c>
       <c r="E237" t="n">
+        <v>0.03016349322701428</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.03000225030379866</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.01048960667101939</v>
+      </c>
+      <c r="H237" t="n">
         <v>0.005899722127188145</v>
       </c>
-      <c r="F237" t="n">
+      <c r="I237" t="n">
         <v>0.01152750517106726</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01711890987482434</v>
       </c>
     </row>
     <row r="238">
@@ -5184,10 +8028,22 @@
         <v>0.00630916919326463</v>
       </c>
       <c r="E238" t="n">
+        <v>-0.0165293019512105</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
         <v>0.01169603976319156</v>
       </c>
-      <c r="F238" t="n">
+      <c r="I238" t="n">
         <v>0.008559253395670208</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.006199475076732242</v>
       </c>
     </row>
     <row r="239">
@@ -5204,10 +8060,22 @@
         <v>-0.00630916919326463</v>
       </c>
       <c r="E239" t="n">
+        <v>-0.01152448585195431</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-0.009901070982711424</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-0.02286819090365944</v>
+      </c>
+      <c r="H239" t="n">
         <v>-0.01957009619409744</v>
       </c>
-      <c r="F239" t="n">
+      <c r="I239" t="n">
         <v>-0.008559253395670208</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-0.01875968249111537</v>
       </c>
     </row>
     <row r="240">
@@ -5224,10 +8092,22 @@
         <v>0.01257878220686015</v>
       </c>
       <c r="E240" t="n">
+        <v>-0.01165884960370311</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-0.004987541511038973</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.005323881252750073</v>
+      </c>
+      <c r="H240" t="n">
         <v>0.01178795575204239</v>
       </c>
-      <c r="F240" t="n">
+      <c r="I240" t="n">
         <v>-0.002869442427952951</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-0.0006194219109776355</v>
       </c>
     </row>
     <row r="241">
@@ -5244,10 +8124,22 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
+        <v>-0.02264247674975994</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.003533572581311262</v>
+      </c>
+      <c r="H241" t="n">
         <v>0.01934296284313097</v>
       </c>
-      <c r="F241" t="n">
+      <c r="I241" t="n">
         <v>0.01142869582362316</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-0.01023839222499134</v>
       </c>
     </row>
     <row r="242">
@@ -5264,10 +8156,22 @@
         <v>-0.002503130218118432</v>
       </c>
       <c r="E242" t="n">
+        <v>0.1162066089672167</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.01980262729617932</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.0380668799238344</v>
+      </c>
+      <c r="H242" t="n">
         <v>0.02646657318816326</v>
       </c>
-      <c r="F242" t="n">
+      <c r="I242" t="n">
         <v>0.05257088700933776</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.002594767110879914</v>
       </c>
     </row>
     <row r="243">
@@ -5284,10 +8188,22 @@
         <v>-0.007547205635383136</v>
       </c>
       <c r="E243" t="n">
+        <v>0.004842624475787982</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.01459879942115272</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-0.02928719227178878</v>
+      </c>
+      <c r="H243" t="n">
         <v>-0.01125715452463449</v>
       </c>
-      <c r="F243" t="n">
+      <c r="I243" t="n">
         <v>-0.0384662808277958</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-0.03082389214662307</v>
       </c>
     </row>
     <row r="244">
@@ -5304,10 +8220,22 @@
         <v>0.0224728558520586</v>
       </c>
       <c r="E244" t="n">
+        <v>-0.02941388520629307</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.009615458699442136</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.008703275128301602</v>
+      </c>
+      <c r="H244" t="n">
         <v>-0.005676458004804985</v>
       </c>
-      <c r="F244" t="n">
+      <c r="I244" t="n">
         <v>0.005586606708639419</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.002282430269701763</v>
       </c>
     </row>
     <row r="245">
@@ -5324,10 +8252,22 @@
         <v>-0.03135052988407594</v>
       </c>
       <c r="E245" t="n">
+        <v>0.02941388520629307</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.004773278752657539</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-0.01396183238176851</v>
+      </c>
+      <c r="H245" t="n">
         <v>0.03174869831457983</v>
       </c>
-      <c r="F245" t="n">
+      <c r="I245" t="n">
         <v>0.04093340892625319</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02118412434627892</v>
       </c>
     </row>
     <row r="246">
@@ -5344,10 +8284,22 @@
         <v>-0.02189398463473635</v>
       </c>
       <c r="E246" t="n">
+        <v>0.02386748140664352</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.004750602758597733</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
         <v>0.02540971552536853</v>
       </c>
-      <c r="F246" t="n">
+      <c r="I246" t="n">
         <v>0.0796312696920074</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.0171088990405881</v>
       </c>
     </row>
     <row r="247">
@@ -5364,10 +8316,22 @@
         <v>-0.01047129986729534</v>
       </c>
       <c r="E247" t="n">
+        <v>-0.01904819497069443</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.005258557253466911</v>
+      </c>
+      <c r="H247" t="n">
         <v>0.01423511582187187</v>
       </c>
-      <c r="F247" t="n">
+      <c r="I247" t="n">
         <v>-0.08768500449910421</v>
+      </c>
+      <c r="J247" t="n">
+        <v>-0.0132062807252602</v>
       </c>
     </row>
     <row r="248">
@@ -5384,10 +8348,22 @@
         <v>-0.01058210933053694</v>
       </c>
       <c r="E248" t="n">
+        <v>0.01432005377474832</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.02342027420809867</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.02588582844829856</v>
+      </c>
+      <c r="H248" t="n">
         <v>-0.02867579997666603</v>
       </c>
-      <c r="F248" t="n">
+      <c r="I248" t="n">
         <v>-0.03287967411915638</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.009011597701888974</v>
       </c>
     </row>
     <row r="249">
@@ -5404,10 +8380,22 @@
         <v>0.001328903850053909</v>
       </c>
       <c r="E249" t="n">
+        <v>-0.01432005377474832</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-0.004640379556502428</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-0.005123836999869624</v>
+      </c>
+      <c r="H249" t="n">
         <v>-0.003642991278501206</v>
       </c>
-      <c r="F249" t="n">
+      <c r="I249" t="n">
         <v>0.04626675490161603</v>
+      </c>
+      <c r="J249" t="n">
+        <v>-0.008845276459418017</v>
       </c>
     </row>
     <row r="250">
@@ -5424,10 +8412,22 @@
         <v>0.00132714020806235</v>
       </c>
       <c r="E250" t="n">
+        <v>0.03774032798284699</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.04100802372737711</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.04519597634336847</v>
+      </c>
+      <c r="H250" t="n">
         <v>0.03055044419842545</v>
       </c>
-      <c r="F250" t="n">
+      <c r="I250" t="n">
         <v>0.0339902002285517</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01870629983947936</v>
       </c>
     </row>
     <row r="251">
@@ -5444,10 +8444,22 @@
         <v>0.0131754211585644</v>
       </c>
       <c r="E251" t="n">
+        <v>0.009216655104923976</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-0.008968669982760247</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.004897968975547062</v>
+      </c>
+      <c r="H251" t="n">
         <v>-0.01246676876513009</v>
       </c>
-      <c r="F251" t="n">
+      <c r="I251" t="n">
         <v>0.01783486763603426</v>
+      </c>
+      <c r="J251" t="n">
+        <v>-0.01488024269644583</v>
       </c>
     </row>
     <row r="252">
@@ -5464,10 +8476,22 @@
         <v>0.00130804466001555</v>
       </c>
       <c r="E252" t="n">
+        <v>0.01366763872866406</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.01342302033214082</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-0.02139999361193468</v>
+      </c>
+      <c r="H252" t="n">
         <v>-0.005390848634876377</v>
       </c>
-      <c r="F252" t="n">
+      <c r="I252" t="n">
         <v>-0.06791120561621078</v>
+      </c>
+      <c r="J252" t="n">
+        <v>-0.01545734780952301</v>
       </c>
     </row>
     <row r="253">
@@ -5484,10 +8508,22 @@
         <v>-0.00130804466001555</v>
       </c>
       <c r="E253" t="n">
+        <v>-0.08495672247596575</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.008849615276982359</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-0.001665279319061241</v>
+      </c>
+      <c r="H253" t="n">
         <v>0.003597126180849397</v>
       </c>
-      <c r="F253" t="n">
+      <c r="I253" t="n">
         <v>-0.01910017137341935</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.008968678328647783</v>
       </c>
     </row>
     <row r="254">
@@ -5504,10 +8540,22 @@
         <v>-0.02652675433342822</v>
       </c>
       <c r="E254" t="n">
+        <v>-0.0330525831214219</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-0.004415018209116717</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-0.02874246886565412</v>
+      </c>
+      <c r="H254" t="n">
         <v>-0.01994626418237866</v>
       </c>
-      <c r="F254" t="n">
+      <c r="I254" t="n">
         <v>-0.05959209720224523</v>
+      </c>
+      <c r="J254" t="n">
+        <v>-0.03520973975191133</v>
       </c>
     </row>
     <row r="255">
@@ -5524,10 +8572,22 @@
         <v>0.002684565370668412</v>
       </c>
       <c r="E255" t="n">
+        <v>-0.002038736689847997</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-0.004434597067865642</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-0.008613317678114907</v>
+      </c>
+      <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="F255" t="n">
+      <c r="I255" t="n">
         <v>-0.02666824708216176</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-0.004745873349511598</v>
       </c>
     </row>
     <row r="256">
@@ -5544,10 +8604,22 @@
         <v>0.02645656953683062</v>
       </c>
       <c r="E256" t="n">
+        <v>0.1643030512912764</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.07696104113612812</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.04730611739693691</v>
+      </c>
+      <c r="H256" t="n">
         <v>0.09097177820572622</v>
       </c>
-      <c r="F256" t="n">
+      <c r="I256" t="n">
         <v>0.05832556695285307</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.07021961970781199</v>
       </c>
     </row>
     <row r="257">
@@ -5564,10 +8636,22 @@
         <v>0.01038970384913585</v>
       </c>
       <c r="E257" t="n">
+        <v>0.01290340483590757</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.01227009259181466</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-0.009950330853167877</v>
+      </c>
+      <c r="H257" t="n">
         <v>-0.02540356760013918</v>
       </c>
-      <c r="F257" t="n">
+      <c r="I257" t="n">
         <v>-0.002836881335199326</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.001873990652288882</v>
       </c>
     </row>
     <row r="258">
@@ -5584,10 +8668,22 @@
         <v>-0.001292825002304987</v>
       </c>
       <c r="E258" t="n">
+        <v>0.0085106896679088</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.02409755157906002</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-0.01511363781004826</v>
+      </c>
+      <c r="H258" t="n">
         <v>-0.003436429498580917</v>
       </c>
-      <c r="F258" t="n">
+      <c r="I258" t="n">
         <v>0.002836881335199326</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.0003363537935427985</v>
       </c>
     </row>
     <row r="259">
@@ -5604,10 +8700,22 @@
         <v>-0.009096878846830858</v>
       </c>
       <c r="E259" t="n">
+        <v>0.01680711831638115</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.01183445764700286</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.01844142790272274</v>
+      </c>
+      <c r="H259" t="n">
         <v>-0.001722653311446276</v>
       </c>
-      <c r="F259" t="n">
+      <c r="I259" t="n">
         <v>0.02517615489247449</v>
+      </c>
+      <c r="J259" t="n">
+        <v>-0.02422558238957784</v>
       </c>
     </row>
     <row r="260">
@@ -5624,10 +8732,22 @@
         <v>0.007802380284184895</v>
       </c>
       <c r="E260" t="n">
+        <v>0.0246926125903717</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-0.01980262729617932</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-0.006666691358189425</v>
+      </c>
+      <c r="H260" t="n">
         <v>0.008583743691391366</v>
       </c>
-      <c r="F260" t="n">
+      <c r="I260" t="n">
         <v>0.01371763622879918</v>
+      </c>
+      <c r="J260" t="n">
+        <v>-0.0003822868889074016</v>
       </c>
     </row>
     <row r="261">
@@ -5644,10 +8764,22 @@
         <v>-0.009108716198240163</v>
       </c>
       <c r="E261" t="n">
+        <v>-0.06725222700916778</v>
+      </c>
+      <c r="F261" t="n">
+        <v>-0.07042246429654586</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-0.04096135763106501</v>
+      </c>
+      <c r="H261" t="n">
         <v>-0.0103093696588612</v>
       </c>
-      <c r="F261" t="n">
+      <c r="I261" t="n">
         <v>-0.08527891770220863</v>
+      </c>
+      <c r="J261" t="n">
+        <v>-0.02201861411935724</v>
       </c>
     </row>
     <row r="262">
@@ -5664,10 +8796,22 @@
         <v>-0.007874056430905885</v>
       </c>
       <c r="E262" t="n">
+        <v>-0.01754430965090936</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.04202298977484764</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-0.01580366517312548</v>
+      </c>
+      <c r="H262" t="n">
         <v>0.005167970158442614</v>
       </c>
-      <c r="F262" t="n">
+      <c r="I262" t="n">
         <v>-0.005952398527295344</v>
+      </c>
+      <c r="J262" t="n">
+        <v>-0.009970748505789828</v>
       </c>
     </row>
     <row r="263">
@@ -5684,10 +8828,22 @@
         <v>0.003944778291016249</v>
       </c>
       <c r="E263" t="n">
+        <v>0.008810629682154847</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.008196767204178723</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.03990121675218594</v>
+      </c>
+      <c r="H263" t="n">
         <v>0.01534556967466028</v>
       </c>
-      <c r="F263" t="n">
+      <c r="I263" t="n">
         <v>0.02359991534087325</v>
+      </c>
+      <c r="J263" t="n">
+        <v>-0.004358809699803956</v>
       </c>
     </row>
     <row r="264">
@@ -5704,10 +8860,22 @@
         <v>-0.005263170044274457</v>
       </c>
       <c r="E264" t="n">
+        <v>-0.01769957709940106</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-0.03742640551911691</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.01686380605200455</v>
+      </c>
+      <c r="H264" t="n">
         <v>0.02341244062474335</v>
       </c>
-      <c r="F264" t="n">
+      <c r="I264" t="n">
         <v>0.005813969865420265</v>
+      </c>
+      <c r="J264" t="n">
+        <v>-0.008886581545715089</v>
       </c>
     </row>
     <row r="265">
@@ -5724,10 +8892,22 @@
         <v>0.006574645642085208</v>
       </c>
       <c r="E265" t="n">
+        <v>0.06899287148695166</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.01680711831638115</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-0.01008411906662587</v>
+      </c>
+      <c r="H265" t="n">
         <v>0.004946423935325406</v>
       </c>
-      <c r="F265" t="n">
+      <c r="I265" t="n">
         <v>0.03977797145691886</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.01921580113397781</v>
       </c>
     </row>
     <row r="266">
@@ -5744,10 +8924,22 @@
         <v>0.001309757882063334</v>
       </c>
       <c r="E266" t="n">
+        <v>0.01242251999855704</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.0469169197877517</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-0.04138521616285429</v>
+      </c>
+      <c r="H266" t="n">
         <v>0.01631357549152357</v>
       </c>
-      <c r="F266" t="n">
+      <c r="I266" t="n">
         <v>-0.07818741957178998</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.02365306131158995</v>
       </c>
     </row>
     <row r="267">
@@ -5764,10 +8956,22 @@
         <v>-0.03733767043764402</v>
       </c>
       <c r="E267" t="n">
+        <v>-0.008264509849893464</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-0.01318700428195374</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-0.02495673197386772</v>
+      </c>
+      <c r="H267" t="n">
         <v>-0.01631357549152357</v>
       </c>
-      <c r="F267" t="n">
+      <c r="I267" t="n">
         <v>-0.07828722132929178</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-0.014144966729706</v>
       </c>
     </row>
     <row r="268">
@@ -5784,10 +8988,22 @@
         <v>0.009465925988882962</v>
       </c>
       <c r="E268" t="n">
+        <v>0.01237129180254692</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.004434597067865642</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.02847167408131224</v>
+      </c>
+      <c r="H268" t="n">
         <v>0.04972957241136777</v>
       </c>
-      <c r="F268" t="n">
+      <c r="I268" t="n">
         <v>-0.01642073021232715</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.002895359979147472</v>
       </c>
     </row>
     <row r="269">
@@ -5804,10 +9020,22 @@
         <v>0.002688173661800075</v>
       </c>
       <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.07696104113612812</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.003502630551202035</v>
+      </c>
+      <c r="H269" t="n">
         <v>0.1053605156578263</v>
       </c>
-      <c r="F269" t="n">
+      <c r="I269" t="n">
         <v>-0.05793783710621936</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.006325067154769215</v>
       </c>
     </row>
     <row r="270">
@@ -5824,10 +9052,22 @@
         <v>-0.02308317018287331</v>
       </c>
       <c r="E270" t="n">
+        <v>0.0122201113347753</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.00410678195265346</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-0.00877968765204562</v>
+      </c>
+      <c r="H270" t="n">
         <v>-0.1195451506497829</v>
       </c>
-      <c r="F270" t="n">
+      <c r="I270" t="n">
         <v>0.003502630551202035</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-0.008522646784971499</v>
       </c>
     </row>
     <row r="271">
@@ -5844,10 +9084,22 @@
         <v>0.008207980417829663</v>
       </c>
       <c r="E271" t="n">
+        <v>-0.004056800695614093</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-0.08106782308878158</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-0.01242251999855748</v>
+      </c>
+      <c r="H271" t="n">
         <v>-0.01438873745209923</v>
       </c>
-      <c r="F271" t="n">
+      <c r="I271" t="n">
         <v>-0.007017572658646554</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.001844389852260875</v>
       </c>
     </row>
     <row r="272">
@@ -5864,10 +9116,22 @@
         <v>-0.01095901378971975</v>
       </c>
       <c r="E272" t="n">
+        <v>0.01612938192988356</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.021978906718775</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-0.008968669982760247</v>
+      </c>
+      <c r="H272" t="n">
         <v>0.004819286435948644</v>
       </c>
-      <c r="F272" t="n">
+      <c r="I272" t="n">
         <v>-0.02135312447056892</v>
+      </c>
+      <c r="J272" t="n">
+        <v>-0.000446558222904514</v>
       </c>
     </row>
     <row r="273">
@@ -5884,10 +9148,22 @@
         <v>-0.002758622439079428</v>
       </c>
       <c r="E273" t="n">
+        <v>0.02761516703297318</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.007181359408664711</v>
+      </c>
+      <c r="H273" t="n">
         <v>0.0423592738391414</v>
       </c>
-      <c r="F273" t="n">
+      <c r="I273" t="n">
         <v>0.007168489478612372</v>
+      </c>
+      <c r="J273" t="n">
+        <v>-0.01799746558321047</v>
       </c>
     </row>
     <row r="274">
@@ -5904,10 +9180,22 @@
         <v>0.005509655810969516</v>
       </c>
       <c r="E274" t="n">
+        <v>-0.01174181787668305</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-0.01754430965090936</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.001787310574095535</v>
+      </c>
+      <c r="H274" t="n">
         <v>-0.03437838550812833</v>
       </c>
-      <c r="F274" t="n">
+      <c r="I274" t="n">
         <v>-0.01077209698191073</v>
+      </c>
+      <c r="J274" t="n">
+        <v>-0.01423476532132817</v>
       </c>
     </row>
     <row r="275">
@@ -5924,10 +9212,22 @@
         <v>0.01228684399265045</v>
       </c>
       <c r="E275" t="n">
+        <v>0.1186575438013158</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.02620237239402412</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0521857531705705</v>
+      </c>
+      <c r="H275" t="n">
         <v>0.01889820022022937</v>
       </c>
-      <c r="F275" t="n">
+      <c r="I275" t="n">
         <v>0.003603607503298356</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.006310974107531564</v>
       </c>
     </row>
     <row r="276">
@@ -5944,10 +9244,22 @@
         <v>-0.009543358046899542</v>
       </c>
       <c r="E276" t="n">
+        <v>0.02758795651882906</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.07472354619593657</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.006756782462879585</v>
+      </c>
+      <c r="H276" t="n">
         <v>0.01548018528789896</v>
       </c>
-      <c r="F276" t="n">
+      <c r="I276" t="n">
         <v>0.007168489478612372</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01243282210986152</v>
       </c>
     </row>
     <row r="277">
@@ -5964,10 +9276,22 @@
         <v>0</v>
       </c>
       <c r="E277" t="n">
+        <v>0.08161133544616295</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.03536714383729089</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.02000066670666945</v>
+      </c>
+      <c r="H277" t="n">
         <v>-0.02017135886377908</v>
       </c>
-      <c r="F277" t="n">
+      <c r="I277" t="n">
         <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.002788062037193839</v>
       </c>
     </row>
     <row r="278">
@@ -5984,10 +9308,22 @@
         <v>0.002735979818874412</v>
       </c>
       <c r="E278" t="n">
+        <v>0.03086664798052752</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-0.003868476777920016</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-0.001651528038472794</v>
+      </c>
+      <c r="H278" t="n">
         <v>-0.09358752649287849</v>
       </c>
-      <c r="F278" t="n">
+      <c r="I278" t="n">
         <v>0.0212022076506031</v>
+      </c>
+      <c r="J278" t="n">
+        <v>-0.001427037649321505</v>
       </c>
     </row>
     <row r="279">
@@ -6004,10 +9340,22 @@
         <v>-0.004106781952653016</v>
       </c>
       <c r="E279" t="n">
+        <v>0.02698814471764654</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-0.06402185876493105</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0261026239026374</v>
+      </c>
+      <c r="H279" t="n">
         <v>-0.03324890695822047</v>
       </c>
-      <c r="F279" t="n">
+      <c r="I279" t="n">
         <v>-0.003502630551202035</v>
+      </c>
+      <c r="J279" t="n">
+        <v>-0.007513892311848736</v>
       </c>
     </row>
     <row r="280">
@@ -6024,10 +9372,22 @@
         <v>-0.01799356504801297</v>
       </c>
       <c r="E280" t="n">
+        <v>-0.03922071315328113</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-0.07729167430164674</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.02386748140664308</v>
+      </c>
+      <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="F280" t="n">
+      <c r="I280" t="n">
         <v>-0.007042282625412621</v>
+      </c>
+      <c r="J280" t="n">
+        <v>-0.01863868239965782</v>
       </c>
     </row>
     <row r="281">
@@ -6044,10 +9404,22 @@
         <v>0</v>
       </c>
       <c r="E281" t="n">
+        <v>-0.1562040686391004</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-0.1956239280338332</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-0.1362304495936875</v>
+      </c>
+      <c r="H281" t="n">
         <v>-0.03255260303774854</v>
       </c>
-      <c r="F281" t="n">
+      <c r="I281" t="n">
         <v>-0.05073551804139864</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.0007980282154580465</v>
       </c>
     </row>
     <row r="282">
@@ -6064,10 +9436,22 @@
         <v>0.009729055198119063</v>
       </c>
       <c r="E282" t="n">
+        <v>-0.01449300730256686</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.0129451645920371</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.005390848634876377</v>
+      </c>
+      <c r="H282" t="n">
         <v>0.01640875466639224</v>
       </c>
-      <c r="F282" t="n">
+      <c r="I282" t="n">
         <v>0.00740744127786197</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.01698916805169581</v>
       </c>
     </row>
     <row r="283">
@@ -6084,10 +9468,22 @@
         <v>-0.004158010148663571</v>
       </c>
       <c r="E283" t="n">
+        <v>-0.033398280401848</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-0.02496060133644828</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-0.02540971552536853</v>
+      </c>
+      <c r="H283" t="n">
         <v>-0.04626171781607313</v>
       </c>
-      <c r="F283" t="n">
+      <c r="I283" t="n">
         <v>-0.01113184036884451</v>
+      </c>
+      <c r="J283" t="n">
+        <v>-0.007980124156716784</v>
       </c>
     </row>
     <row r="284">
@@ -6104,10 +9500,22 @@
         <v>0.0165293019512105</v>
       </c>
       <c r="E284" t="n">
+        <v>0.01125715452463449</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.01526747213078838</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.02001886689049215</v>
+      </c>
+      <c r="H284" t="n">
         <v>-0.07061756721395351</v>
       </c>
-      <c r="F284" t="n">
+      <c r="I284" t="n">
         <v>0.007434978487518062</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.001308740703825251</v>
       </c>
     </row>
     <row r="285">
@@ -6124,10 +9532,22 @@
         <v>0.01894508624244917</v>
       </c>
       <c r="E285" t="n">
+        <v>0.02578411715571471</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-0.005420067469338985</v>
+      </c>
+      <c r="H285" t="n">
         <v>-0.0102145934097182</v>
       </c>
-      <c r="F285" t="n">
+      <c r="I285" t="n">
         <v>0.01470614738969545</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.0006905928789002758</v>
       </c>
     </row>
     <row r="286">
@@ -6144,10 +9564,22 @@
         <v>0.01727617719186947</v>
       </c>
       <c r="E286" t="n">
+        <v>-0.04082199452025526</v>
+      </c>
+      <c r="F286" t="n">
+        <v>-0.004338401598598107</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-0.02012876743061387</v>
+      </c>
+      <c r="H286" t="n">
         <v>0.002051282770557439</v>
       </c>
-      <c r="F286" t="n">
+      <c r="I286" t="n">
         <v>0.003642991278501206</v>
+      </c>
+      <c r="J286" t="n">
+        <v>-0.01414216411570379</v>
       </c>
     </row>
     <row r="287">
@@ -6164,10 +9596,22 @@
         <v>-0.002638523958181427</v>
       </c>
       <c r="E287" t="n">
+        <v>-0.05049616401453205</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.003255564459766269</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.007366515816762398</v>
+      </c>
+      <c r="H287" t="n">
         <v>0.01424235671554319</v>
       </c>
-      <c r="F287" t="n">
+      <c r="I287" t="n">
         <v>0.003629768050578797</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.009454785997963455</v>
       </c>
     </row>
     <row r="288">
@@ -6184,10 +9628,22 @@
         <v>0.003955179842928036</v>
       </c>
       <c r="E288" t="n">
+        <v>-0.01202419296680191</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.01184720372599024</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-0.01292723450145994</v>
+      </c>
+      <c r="H288" t="n">
         <v>0.008048333182828049</v>
       </c>
-      <c r="F288" t="n">
+      <c r="I288" t="n">
         <v>0.02150620522096336</v>
+      </c>
+      <c r="J288" t="n">
+        <v>-0.001672382070225353</v>
       </c>
     </row>
     <row r="289">
@@ -6204,10 +9660,22 @@
         <v>-0.01591545530589933</v>
       </c>
       <c r="E289" t="n">
+        <v>-0.01217053562025505</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-0.02383644815451103</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.01841672678623141</v>
+      </c>
+      <c r="H289" t="n">
         <v>-0.002006018726865566</v>
       </c>
-      <c r="F289" t="n">
+      <c r="I289" t="n">
         <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>-0.02152273327213194</v>
       </c>
     </row>
     <row r="290">
@@ -6224,10 +9692,22 @@
         <v>-0.001337792841659802</v>
       </c>
       <c r="E290" t="n">
+        <v>0.04000533461369882</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-0.005497539959194775</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.00182315456151505</v>
+      </c>
+      <c r="H290" t="n">
         <v>-0.00402415029972536</v>
       </c>
-      <c r="F290" t="n">
+      <c r="I290" t="n">
         <v>0.0245196171743185</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.004216866024325583</v>
       </c>
     </row>
     <row r="291">
@@ -6244,10 +9724,22 @@
         <v>0.01725324814755913</v>
       </c>
       <c r="E291" t="n">
+        <v>0.01169603976319156</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.007688121339013421</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.02340340838416033</v>
+      </c>
+      <c r="H291" t="n">
         <v>-0.02036730282443378</v>
       </c>
-      <c r="F291" t="n">
+      <c r="I291" t="n">
         <v>-0.01745244995122608</v>
+      </c>
+      <c r="J291" t="n">
+        <v>-0.004077067019624181</v>
       </c>
     </row>
     <row r="292">
@@ -6264,10 +9756,22 @@
         <v>0.01566611674439944</v>
       </c>
       <c r="E292" t="n">
+        <v>-0.007782140442055052</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.007629464801156782</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.02460581080220026</v>
+      </c>
+      <c r="H292" t="n">
         <v>0.01023550389402672</v>
       </c>
-      <c r="F292" t="n">
+      <c r="I292" t="n">
         <v>-0.003527340517968103</v>
+      </c>
+      <c r="J292" t="n">
+        <v>-0.00554786443771782</v>
       </c>
     </row>
     <row r="293">
@@ -6284,10 +9788,22 @@
         <v>0.01797224240443018</v>
       </c>
       <c r="E293" t="n">
+        <v>-0.08985632912186103</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.004352563998842207</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-0.07197349962508914</v>
+      </c>
+      <c r="H293" t="n">
         <v>-0.02892763690617928</v>
       </c>
-      <c r="F293" t="n">
+      <c r="I293" t="n">
         <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>-0.01539514793998364</v>
       </c>
     </row>
     <row r="294">
@@ -6304,10 +9820,22 @@
         <v>0.03377431711860446</v>
       </c>
       <c r="E294" t="n">
+        <v>-0.02597548640326064</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.02264247674975994</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.007434978487518062</v>
+      </c>
+      <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="F294" t="n">
+      <c r="I294" t="n">
         <v>0.01403531811638326</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.003932897089432785</v>
       </c>
     </row>
     <row r="295">
@@ -6324,10 +9852,22 @@
         <v>0.003683245416296277</v>
       </c>
       <c r="E295" t="n">
+        <v>0.1158318155251217</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-0.008565362858922843</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.03815176596437642</v>
+      </c>
+      <c r="H295" t="n">
         <v>0.004184106522573838</v>
       </c>
-      <c r="F295" t="n">
+      <c r="I295" t="n">
         <v>-0.006993035490970634</v>
+      </c>
+      <c r="J295" t="n">
+        <v>-0.008737527151994939</v>
       </c>
     </row>
     <row r="296">
@@ -6344,10 +9884,22 @@
         <v>0.01941808585710181</v>
       </c>
       <c r="E296" t="n">
+        <v>-0.7329930891071448</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.005361943141385161</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.01766830413331366</v>
+      </c>
+      <c r="H296" t="n">
         <v>-0.01260520891898231</v>
       </c>
-      <c r="F296" t="n">
+      <c r="I296" t="n">
         <v>-0.003514942107444519</v>
+      </c>
+      <c r="J296" t="n">
+        <v>-0.002826229353086518</v>
       </c>
     </row>
     <row r="297">
@@ -6364,10 +9916,22 @@
         <v>-0.03299016340264549</v>
       </c>
       <c r="E297" t="n">
+        <v>0.07061756721395307</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-0.01617285924560097</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.001749781723787702</v>
+      </c>
+      <c r="H297" t="n">
         <v>-0.002116402906377157</v>
       </c>
-      <c r="F297" t="n">
+      <c r="I297" t="n">
         <v>0.003514942107444519</v>
+      </c>
+      <c r="J297" t="n">
+        <v>-0.01578334510304913</v>
       </c>
     </row>
     <row r="298">
@@ -6384,10 +9948,22 @@
         <v>0.0281708769666964</v>
       </c>
       <c r="E298" t="n">
+        <v>0.08283600557914927</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.007579895522769053</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-0.01763714148610696</v>
+      </c>
+      <c r="H298" t="n">
         <v>0.008438868645864517</v>
       </c>
-      <c r="F298" t="n">
+      <c r="I298" t="n">
         <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.001595859331386507</v>
       </c>
     </row>
     <row r="299">
@@ -6404,10 +9980,22 @@
         <v>0.02622319509910254</v>
       </c>
       <c r="E299" t="n">
+        <v>-0.02542509836580997</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.02028900348602347</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.08523043261863528</v>
+      </c>
+      <c r="H299" t="n">
         <v>0.01666705248521172</v>
       </c>
-      <c r="F299" t="n">
+      <c r="I299" t="n">
         <v>0.02083408690284205</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.01432625248023278</v>
       </c>
     </row>
     <row r="300">
@@ -6424,10 +10012,22 @@
         <v>0.008201569113417406</v>
       </c>
       <c r="E300" t="n">
+        <v>-0.01295914464250525</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.1090534768582883</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.01298719552681105</v>
+      </c>
+      <c r="H300" t="n">
         <v>0.01842426732605817</v>
       </c>
-      <c r="F300" t="n">
+      <c r="I300" t="n">
         <v>0.003430535096789367</v>
+      </c>
+      <c r="J300" t="n">
+        <v>-0.006284028362141925</v>
       </c>
     </row>
     <row r="301">
@@ -6441,11 +10041,21 @@
       <c r="D301" t="n">
         <v>0.01390520666761264</v>
       </c>
-      <c r="E301" t="n">
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="n">
+        <v>-0.004750602758597733</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-0.009724549891994894</v>
+      </c>
+      <c r="H301" t="n">
         <v>0.006066752682237553</v>
       </c>
-      <c r="F301" t="n">
+      <c r="I301" t="n">
         <v>0.04355797433912967</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.009278516437642992</v>
       </c>
     </row>
   </sheetData>
